--- a/data/landings/cdfw/public/fish_bulletins/raw/fb95/raw/Tables21-27.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb95/raw/Tables21-27.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb95/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D271AF8-E0EC-4E4A-B832-A77BB35058A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE9239D-DD38-4649-A559-A6FC2C30653A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24340" yWindow="460" windowWidth="26560" windowHeight="24460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,12 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="211">
   <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Pounds</t>
-  </si>
-  <si>
     <t>Pacific halibut</t>
   </si>
   <si>
@@ -653,6 +647,12 @@
   </si>
   <si>
     <t>Los Angeles region totals</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>pounds</t>
   </si>
 </sst>
 </file>
@@ -1018,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
-      <selection activeCell="E415" sqref="E415"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1033,27 +1033,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D2" s="1">
         <v>3806175</v>
@@ -1064,13 +1064,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>756502</v>
@@ -1081,13 +1081,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1">
         <v>360764</v>
@@ -1098,13 +1098,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1">
         <v>322172</v>
@@ -1115,13 +1115,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1">
         <v>126458</v>
@@ -1132,13 +1132,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D7" s="1">
         <v>59234</v>
@@ -1149,13 +1149,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D8" s="1">
         <v>32437</v>
@@ -1166,13 +1166,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1">
         <v>16624</v>
@@ -1183,13 +1183,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
         <v>15851</v>
@@ -1200,13 +1200,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D11" s="1">
         <v>6824</v>
@@ -1217,13 +1217,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1">
         <v>17246</v>
@@ -1234,13 +1234,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1">
         <v>1714112</v>
@@ -1253,7 +1253,7 @@
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D14" s="4">
         <f>SUM(D3:D12)-D13</f>
@@ -1266,13 +1266,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1">
         <v>692126</v>
@@ -1283,13 +1283,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1">
         <v>210705</v>
@@ -1300,13 +1300,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
         <v>113694</v>
@@ -1317,13 +1317,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D18" s="1">
         <v>26839</v>
@@ -1334,13 +1334,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1">
         <v>19893</v>
@@ -1351,13 +1351,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D20" s="1">
         <v>15263</v>
@@ -1368,13 +1368,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="1">
         <v>13842</v>
@@ -1385,13 +1385,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D22" s="1">
         <v>1092362</v>
@@ -1403,7 +1403,7 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="C23" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D23" s="4">
         <f>SUM(D15:D21)-D22</f>
@@ -1416,13 +1416,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D24" s="1">
         <v>246094</v>
@@ -1433,13 +1433,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D25" s="1">
         <v>118572</v>
@@ -1450,13 +1450,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1">
         <v>94299</v>
@@ -1467,13 +1467,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" s="1">
         <v>48265</v>
@@ -1484,13 +1484,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D28" s="1">
         <v>2672</v>
@@ -1501,13 +1501,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D29" s="1">
         <v>13983</v>
@@ -1518,13 +1518,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D30" s="1">
         <v>5623</v>
@@ -1535,13 +1535,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D31" s="1">
         <v>7768</v>
@@ -1552,13 +1552,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D32" s="1">
         <v>561324</v>
@@ -1571,7 +1571,7 @@
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D33" s="4">
         <f>SUM(D24:D31)-D32</f>
@@ -1584,13 +1584,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D34" s="1">
         <v>124541</v>
@@ -1601,13 +1601,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D35" s="1">
         <v>64306</v>
@@ -1618,13 +1618,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D36" s="1">
         <v>25263</v>
@@ -1635,13 +1635,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D37" s="1">
         <v>5549</v>
@@ -1652,13 +1652,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D38" s="1">
         <v>8076</v>
@@ -1669,13 +1669,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D39" s="1">
         <v>227735</v>
@@ -1687,7 +1687,7 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
       <c r="C40" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D40" s="4">
         <f>SUM(D34:D38)-D39</f>
@@ -1700,13 +1700,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D41" s="1">
         <v>189771</v>
@@ -1717,13 +1717,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D42" s="1">
         <v>3779</v>
@@ -1734,13 +1734,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D43" s="1">
         <v>69</v>
@@ -1751,13 +1751,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D44" s="1">
         <v>193619</v>
@@ -1769,7 +1769,7 @@
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="C45" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D45" s="4">
         <f>SUM(D41:D43)-D44</f>
@@ -1782,13 +1782,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C46" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D46" s="1">
         <v>9588</v>
@@ -1799,13 +1799,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D47" s="1">
         <v>825</v>
@@ -1816,13 +1816,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D48" s="1">
         <v>10413</v>
@@ -1834,7 +1834,7 @@
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
       <c r="C49" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D49" s="4">
         <f>SUM(D46:D47)-D48</f>
@@ -1847,13 +1847,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B50" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D50" s="1">
         <v>6610</v>
@@ -1864,13 +1864,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D51" s="1">
         <v>6610</v>
@@ -1881,17 +1881,17 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C52" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D53" s="1">
         <v>290832</v>
@@ -1902,13 +1902,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" s="1">
         <v>101807</v>
@@ -1919,13 +1919,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D55" s="1">
         <v>31784</v>
@@ -1936,13 +1936,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C56" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D56" s="1">
         <v>20971</v>
@@ -1953,13 +1953,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C57" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D57" s="1">
         <v>2178</v>
@@ -1970,13 +1970,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D58" s="1">
         <v>150740</v>
@@ -1989,7 +1989,7 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D59" s="4">
         <f>SUM(D54:D57)-D58</f>
@@ -2002,13 +2002,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B60" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" s="1">
         <v>28874</v>
@@ -2019,13 +2019,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B61" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D61" s="1">
         <v>8013</v>
@@ -2036,13 +2036,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B62" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C62" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D62" s="1">
         <v>72</v>
@@ -2053,13 +2053,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B63" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C63" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D63" s="1">
         <v>36959</v>
@@ -2071,7 +2071,7 @@
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="2"/>
       <c r="C64" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D64" s="4">
         <f>SUM(D60:D62)-D63</f>
@@ -2084,13 +2084,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B65" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" s="1">
         <v>22810</v>
@@ -2101,13 +2101,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B66" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D66" s="1">
         <v>7505</v>
@@ -2118,13 +2118,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B67" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D67" s="1">
         <v>272</v>
@@ -2135,13 +2135,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B68" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D68" s="1">
         <v>30617</v>
@@ -2153,7 +2153,7 @@
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
       <c r="C69" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D69" s="4">
         <f>SUM(D65:D67)-D68</f>
@@ -2166,13 +2166,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B70" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" s="1">
         <v>8938</v>
@@ -2183,13 +2183,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B71" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D71" s="1">
         <v>7811</v>
@@ -2200,13 +2200,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B72" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C72" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D72" s="1">
         <v>5128</v>
@@ -2217,13 +2217,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B73" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D73" s="1">
         <v>4792</v>
@@ -2234,13 +2234,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B74" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D74" s="1">
         <v>519</v>
@@ -2251,13 +2251,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B75" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C75" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D75" s="1">
         <v>27188</v>
@@ -2269,7 +2269,7 @@
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="2"/>
       <c r="C76" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D76" s="4">
         <f>SUM(D70:D74)-D75</f>
@@ -2282,13 +2282,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D77" s="1">
         <v>19397</v>
@@ -2299,13 +2299,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C78" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D78" s="1">
         <v>19397</v>
@@ -2318,20 +2318,20 @@
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B80" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D80" s="1">
         <v>7277</v>
@@ -2342,13 +2342,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B81" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C81" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D81" s="1">
         <v>7277</v>
@@ -2360,20 +2360,20 @@
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="2"/>
       <c r="C82" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D83" s="1">
         <v>4717</v>
@@ -2384,13 +2384,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D84" s="1">
         <v>4717</v>
@@ -2403,20 +2403,20 @@
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B86" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D86" s="1">
         <v>3449</v>
@@ -2427,13 +2427,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B87" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" s="1">
         <v>2448</v>
@@ -2444,13 +2444,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B88" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D88" s="1">
         <v>204</v>
@@ -2461,13 +2461,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B89" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C89" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D89" s="1">
         <v>7937</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C90" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D90" s="4">
         <f>SUM(D86:D88)-D89</f>
@@ -2491,10 +2491,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C91" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D91" s="1">
         <v>3876140</v>
@@ -2505,13 +2505,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B92" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C92" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D92" s="1">
         <v>1101629</v>
@@ -2522,13 +2522,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B93" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D93" s="1">
         <v>355211</v>
@@ -2539,13 +2539,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B94" t="s">
+        <v>50</v>
+      </c>
+      <c r="C94" t="s">
         <v>52</v>
-      </c>
-      <c r="C94" t="s">
-        <v>54</v>
       </c>
       <c r="D94" s="1">
         <v>165200</v>
@@ -2556,13 +2556,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B95" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C95" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D95" s="1">
         <v>140355</v>
@@ -2573,13 +2573,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B96" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C96" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D96" s="1">
         <v>124695</v>
@@ -2590,13 +2590,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B97" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C97" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D97" s="1">
         <v>117775</v>
@@ -2607,13 +2607,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B98" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C98" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" s="1">
         <v>108940</v>
@@ -2624,13 +2624,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B99" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C99" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D99" s="1">
         <v>88608</v>
@@ -2641,13 +2641,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B100" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C100" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D100" s="1">
         <v>44900</v>
@@ -2658,13 +2658,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B101" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C101" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D101" s="1">
         <v>28011</v>
@@ -2675,13 +2675,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B102" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D102" s="1">
         <v>19761</v>
@@ -2692,13 +2692,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B103" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C103" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D103" s="1">
         <v>18081</v>
@@ -2709,13 +2709,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B104" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C104" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D104" s="1">
         <v>14319</v>
@@ -2726,13 +2726,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B105" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C105" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D105" s="1">
         <v>12332</v>
@@ -2743,13 +2743,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B106" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C106" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D106" s="1">
         <v>10971</v>
@@ -2760,13 +2760,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B107" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C107" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D107" s="1">
         <v>4436</v>
@@ -2777,13 +2777,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B108" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C108" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D108" s="1">
         <v>2395151</v>
@@ -2795,7 +2795,7 @@
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="2"/>
       <c r="C109" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D109" s="4">
         <f>SUM(D92:D107)-D108</f>
@@ -2808,13 +2808,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C110" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D110" s="1">
         <v>396136</v>
@@ -2825,13 +2825,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D111" s="1">
         <v>44508</v>
@@ -2842,13 +2842,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C112" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D112" s="1">
         <v>46452</v>
@@ -2859,13 +2859,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C113" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D113" s="1">
         <v>41565</v>
@@ -2876,13 +2876,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C114" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D114" s="1">
         <v>14788</v>
@@ -2893,13 +2893,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C115" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D115" s="1">
         <v>7137</v>
@@ -2910,13 +2910,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C116" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D116" s="1">
         <v>11856</v>
@@ -2927,13 +2927,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C117" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D117" s="1">
         <v>562442</v>
@@ -2946,7 +2946,7 @@
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D118" s="4">
         <f>SUM(D110:D116)-D117</f>
@@ -2959,13 +2959,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B119" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C119" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D119" s="1">
         <v>119917</v>
@@ -2976,13 +2976,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B120" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C120" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D120" s="1">
         <v>77263</v>
@@ -2993,13 +2993,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B121" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C121" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D121" s="1">
         <v>71775</v>
@@ -3010,13 +3010,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B122" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D122" s="1">
         <v>46891</v>
@@ -3027,13 +3027,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B123" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C123" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D123" s="1">
         <v>30505</v>
@@ -3044,13 +3044,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B124" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C124" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D124" s="1">
         <v>10213</v>
@@ -3061,13 +3061,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B125" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C125" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D125" s="1">
         <v>9176</v>
@@ -3078,13 +3078,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B126" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C126" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D126" s="1">
         <v>16040</v>
@@ -3095,13 +3095,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B127" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C127" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D127" s="1">
         <v>381780</v>
@@ -3113,7 +3113,7 @@
     <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A128" s="2"/>
       <c r="C128" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D128" s="4">
         <f>SUM(D119:D126)-D127</f>
@@ -3126,13 +3126,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B129" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C129" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D129" s="1">
         <v>232886</v>
@@ -3143,13 +3143,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B130" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D130" s="1">
         <v>44863</v>
@@ -3160,13 +3160,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B131" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C131" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D131" s="1">
         <v>12919</v>
@@ -3177,13 +3177,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B132" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C132" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D132" s="1">
         <v>290668</v>
@@ -3195,7 +3195,7 @@
     <row r="133" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A133" s="2"/>
       <c r="C133" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D133" s="4">
         <f>SUM(D129:D131)-D132</f>
@@ -3208,13 +3208,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A134" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C134" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D134" s="1">
         <v>77699</v>
@@ -3225,13 +3225,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A135" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C135" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D135" s="1">
         <v>5827</v>
@@ -3242,13 +3242,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A136" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C136" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D136" s="1">
         <v>7791</v>
@@ -3259,13 +3259,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C137" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D137" s="1">
         <v>91317</v>
@@ -3278,7 +3278,7 @@
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D138" s="4">
         <f>SUM(D134:D136)-D137</f>
@@ -3291,13 +3291,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A139" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B139" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C139" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D139" s="1">
         <v>42191</v>
@@ -3308,13 +3308,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B140" t="s">
+        <v>63</v>
+      </c>
+      <c r="C140" t="s">
         <v>65</v>
-      </c>
-      <c r="C140" t="s">
-        <v>67</v>
       </c>
       <c r="D140" s="1">
         <v>24461</v>
@@ -3325,13 +3325,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A141" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B141" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C141" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D141" s="1">
         <v>9679</v>
@@ -3342,13 +3342,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A142" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B142" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C142" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D142" s="1">
         <v>5319</v>
@@ -3359,13 +3359,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B143" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C143" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D143" s="1">
         <v>1943</v>
@@ -3376,13 +3376,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A144" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B144" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C144" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D144" s="1">
         <v>83593</v>
@@ -3394,7 +3394,7 @@
     <row r="145" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A145" s="2"/>
       <c r="C145" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D145" s="4">
         <f>SUM(D139:D143)-D144</f>
@@ -3407,13 +3407,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A146" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B146" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D146" s="1">
         <v>20422</v>
@@ -3424,13 +3424,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B147" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D147" s="1">
         <v>77</v>
@@ -3441,13 +3441,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B148" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D148" s="1">
         <v>20499</v>
@@ -3459,7 +3459,7 @@
     <row r="149" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A149" s="2"/>
       <c r="C149" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D149" s="4">
         <f>SUM(D146:D147)-D148</f>
@@ -3472,13 +3472,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A150" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B150" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C150" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D150" s="1">
         <v>13152</v>
@@ -3489,13 +3489,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B151" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D151" s="1">
         <v>5175</v>
@@ -3506,13 +3506,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A152" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B152" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C152" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D152" s="1">
         <v>1185</v>
@@ -3523,13 +3523,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A153" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B153" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C153" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D153" s="1">
         <v>19512</v>
@@ -3541,7 +3541,7 @@
     <row r="154" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A154" s="2"/>
       <c r="C154" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D154" s="4">
         <f>SUM(D150:D152)-D153</f>
@@ -3554,13 +3554,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A155" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B155" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D155" s="1">
         <v>6115</v>
@@ -3571,13 +3571,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B156" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D156" s="1">
         <v>5429</v>
@@ -3588,13 +3588,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B157" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D157" s="1">
         <v>11544</v>
@@ -3606,7 +3606,7 @@
     <row r="158" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A158" s="2"/>
       <c r="C158" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D158" s="4">
         <f>SUM(D155:D156)-D157</f>
@@ -3619,13 +3619,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D159" s="1">
         <v>10070</v>
@@ -3636,13 +3636,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A160" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B160" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C160" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D160" s="1">
         <v>749</v>
@@ -3653,13 +3653,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A161" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B161" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C161" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D161" s="1">
         <v>10825</v>
@@ -3671,7 +3671,7 @@
     <row r="162" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A162" s="2"/>
       <c r="C162" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D162" s="4">
         <f>SUM(D159:D160)-D161</f>
@@ -3684,13 +3684,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A163" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C163" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D163" s="1">
         <v>8815</v>
@@ -3701,13 +3701,13 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A164" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C164" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D164" s="1">
         <v>8815</v>
@@ -3718,17 +3718,17 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C165" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A166" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C166" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D166" s="1">
         <v>2860297</v>
@@ -3739,13 +3739,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A167" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B167" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C167" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D167" s="1">
         <v>784776</v>
@@ -3756,13 +3756,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B168" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C168" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D168" s="1">
         <v>372514</v>
@@ -3773,13 +3773,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A169" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B169" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C169" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D169" s="1">
         <v>207098</v>
@@ -3790,13 +3790,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A170" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B170" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C170" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D170" s="1">
         <v>162747</v>
@@ -3807,13 +3807,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A171" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B171" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C171" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D171" s="1">
         <v>155461</v>
@@ -3824,13 +3824,13 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A172" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B172" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C172" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D172" s="1">
         <v>134354</v>
@@ -3841,13 +3841,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A173" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B173" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C173" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D173" s="1">
         <v>15805</v>
@@ -3858,13 +3858,13 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C174" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D174" s="1">
         <v>15284</v>
@@ -3875,13 +3875,13 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A175" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C175" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D175" s="1">
         <v>14156</v>
@@ -3892,13 +3892,13 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B176" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C176" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D176" s="1">
         <v>13288</v>
@@ -3909,13 +3909,13 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A177" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C177" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D177" s="1">
         <v>10617</v>
@@ -3926,13 +3926,13 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C178" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D178" s="1">
         <v>10360</v>
@@ -3943,13 +3943,13 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A179" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C179" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D179" s="1">
         <v>9959</v>
@@ -3960,13 +3960,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A180" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B180" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C180" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D180" s="1">
         <v>7200</v>
@@ -3977,13 +3977,13 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A181" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B181" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C181" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D181" s="1">
         <v>5510</v>
@@ -3994,13 +3994,13 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A182" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B182" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C182" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D182" s="1">
         <v>18339</v>
@@ -4011,13 +4011,13 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A183" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B183" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C183" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D183" s="1">
         <v>1937471</v>
@@ -4029,7 +4029,7 @@
     <row r="184" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A184" s="2"/>
       <c r="C184" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D184" s="4">
         <f>SUM(D167:D182)-D183</f>
@@ -4042,13 +4042,13 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A185" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C185" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D185" s="1">
         <v>303362</v>
@@ -4059,13 +4059,13 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A186" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C186" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D186" s="1">
         <v>143635</v>
@@ -4076,13 +4076,13 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A187" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C187" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D187" s="1">
         <v>85444</v>
@@ -4093,13 +4093,13 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A188" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C188" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D188" s="1">
         <v>494</v>
@@ -4110,13 +4110,13 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A189" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D189" s="1">
         <v>12257</v>
@@ -4127,13 +4127,13 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A190" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D190" s="1">
         <v>4278</v>
@@ -4144,13 +4144,13 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A191" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C191" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D191" s="1">
         <v>4722</v>
@@ -4161,13 +4161,13 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A192" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C192" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D192" s="1">
         <v>603098</v>
@@ -4180,7 +4180,7 @@
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D193" s="4">
         <f>SUM(D185:D191)-D192</f>
@@ -4193,13 +4193,13 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A194" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C194" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D194" s="1">
         <v>88259</v>
@@ -4210,13 +4210,13 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A195" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C195" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D195" s="1">
         <v>67350</v>
@@ -4227,13 +4227,13 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A196" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C196" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D196" s="1">
         <v>59781</v>
@@ -4244,13 +4244,13 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A197" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C197" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D197" s="1">
         <v>43787</v>
@@ -4261,13 +4261,13 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D198" s="1">
         <v>11192</v>
@@ -4278,13 +4278,13 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A199" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C199" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D199" s="1">
         <v>9567</v>
@@ -4295,13 +4295,13 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A200" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C200" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D200" s="1">
         <v>7564</v>
@@ -4312,13 +4312,13 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A201" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C201" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D201" s="1">
         <v>6589</v>
@@ -4329,13 +4329,13 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A202" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C202" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D202" s="1">
         <v>25639</v>
@@ -4346,13 +4346,13 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A203" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C203" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D203" s="1">
         <v>319728</v>
@@ -4363,7 +4363,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C204" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D204" s="4">
         <f>SUM(D194:D202)-D203</f>
@@ -4376,10 +4376,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A205" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D205" s="1">
         <v>1435196</v>
@@ -4390,13 +4390,13 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A206" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D206" s="1">
         <v>128453</v>
@@ -4407,13 +4407,13 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A207" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C207" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D207" s="1">
         <v>106828</v>
@@ -4424,13 +4424,13 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A208" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C208" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D208" s="1">
         <v>85611</v>
@@ -4441,13 +4441,13 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A209" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C209" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D209" s="1">
         <v>42375</v>
@@ -4458,13 +4458,13 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A210" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C210" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D210" s="1">
         <v>36552</v>
@@ -4475,13 +4475,13 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A211" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C211" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D211" s="1">
         <v>33515</v>
@@ -4492,13 +4492,13 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A212" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C212" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D212" s="1">
         <v>19258</v>
@@ -4509,13 +4509,13 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A213" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C213" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D213" s="1">
         <v>15210</v>
@@ -4526,13 +4526,13 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A214" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C214" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D214" s="1">
         <v>11056</v>
@@ -4543,13 +4543,13 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A215" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C215" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D215" s="1">
         <v>9011</v>
@@ -4560,13 +4560,13 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A216" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C216" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D216" s="1">
         <v>7912</v>
@@ -4577,13 +4577,13 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A217" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C217" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D217" s="1">
         <v>5113</v>
@@ -4594,13 +4594,13 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A218" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C218" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D218" s="1">
         <v>5086</v>
@@ -4611,13 +4611,13 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A219" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C219" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D219" s="1">
         <v>8375</v>
@@ -4628,13 +4628,13 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A220" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C220" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D220" s="1">
         <v>514355</v>
@@ -4647,7 +4647,7 @@
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D221" s="4">
         <f>SUM(D206:D219)-D220</f>
@@ -4660,13 +4660,13 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A222" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D222" s="1">
         <v>321225</v>
@@ -4677,13 +4677,13 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A223" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C223" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D223" s="1">
         <v>23518</v>
@@ -4694,13 +4694,13 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A224" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C224" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D224" s="1">
         <v>23278</v>
@@ -4711,13 +4711,13 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A225" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C225" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D225" s="1">
         <v>8668</v>
@@ -4728,13 +4728,13 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A226" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C226" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D226" s="1">
         <v>5953</v>
@@ -4745,13 +4745,13 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A227" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C227" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D227" s="1">
         <v>5617</v>
@@ -4762,13 +4762,13 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A228" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C228" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D228" s="1">
         <v>388259</v>
@@ -4781,7 +4781,7 @@
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D229" s="4">
         <f>SUM(D222:D227)-D228</f>
@@ -4794,13 +4794,13 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A230" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B230" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C230" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D230" s="1">
         <v>142472</v>
@@ -4811,13 +4811,13 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A231" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B231" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C231" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D231" s="1">
         <v>92762</v>
@@ -4828,13 +4828,13 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A232" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B232" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C232" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D232" s="1">
         <v>23411</v>
@@ -4845,13 +4845,13 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A233" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B233" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C233" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D233" s="1">
         <v>10955</v>
@@ -4862,13 +4862,13 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A234" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B234" t="s">
+        <v>84</v>
+      </c>
+      <c r="C234" t="s">
         <v>86</v>
-      </c>
-      <c r="C234" t="s">
-        <v>88</v>
       </c>
       <c r="D234" s="1">
         <v>6502</v>
@@ -4879,13 +4879,13 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A235" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B235" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C235" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D235" s="1">
         <v>5234</v>
@@ -4896,13 +4896,13 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A236" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B236" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C236" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D236" s="1">
         <v>12948</v>
@@ -4913,13 +4913,13 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A237" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B237" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C237" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D237" s="1">
         <v>294284</v>
@@ -4931,7 +4931,7 @@
     <row r="238" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A238" s="2"/>
       <c r="C238" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D238" s="4">
         <f>SUM(D230:D236)-D237</f>
@@ -4944,13 +4944,13 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A239" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D239" s="1">
         <v>68237</v>
@@ -4961,13 +4961,13 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A240" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C240" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D240" s="1">
         <v>13994</v>
@@ -4978,13 +4978,13 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A241" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C241" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D241" s="1">
         <v>12517</v>
@@ -4995,13 +4995,13 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A242" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C242" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D242" s="1">
         <v>9705</v>
@@ -5012,13 +5012,13 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A243" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C243" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D243" s="1">
         <v>5741</v>
@@ -5029,13 +5029,13 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A244" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C244" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D244" s="1">
         <v>18601</v>
@@ -5046,13 +5046,13 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A245" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C245" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D245" s="1">
         <v>128795</v>
@@ -5065,7 +5065,7 @@
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D246" s="4">
         <f>SUM(D239:D244)-D245</f>
@@ -5078,13 +5078,13 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A247" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C247" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D247" s="1">
         <v>72948</v>
@@ -5095,13 +5095,13 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A248" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C248" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D248" s="1">
         <v>72948</v>
@@ -5114,20 +5114,20 @@
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A250" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B250" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C250" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D250" s="1">
         <v>26508</v>
@@ -5138,13 +5138,13 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A251" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B251" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C251" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D251" s="1">
         <v>26508</v>
@@ -5156,17 +5156,17 @@
     <row r="252" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A252" s="2"/>
       <c r="C252" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A253" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D253" s="1">
         <v>5724</v>
@@ -5177,13 +5177,13 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A254" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C254" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D254" s="1">
         <v>10</v>
@@ -5194,13 +5194,13 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A255" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C255" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D255" s="1">
         <v>5734</v>
@@ -5213,7 +5213,7 @@
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D256" s="4">
         <f>SUM(D253:D254)-D255</f>
@@ -5226,13 +5226,13 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A257" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C257" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D257" s="1">
         <v>4313</v>
@@ -5243,13 +5243,13 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A258" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C258" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D258" s="1">
         <v>4313</v>
@@ -5260,17 +5260,17 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C259" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A260" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D260" s="1">
         <v>42533092</v>
@@ -5281,13 +5281,13 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A261" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C261" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D261" s="1">
         <v>19270510</v>
@@ -5298,13 +5298,13 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A262" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C262" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D262" s="1">
         <v>6780114</v>
@@ -5315,13 +5315,13 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A263" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D263" s="1">
         <v>4731089</v>
@@ -5332,13 +5332,13 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A264" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C264" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D264" s="1">
         <v>3293324</v>
@@ -5349,13 +5349,13 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A265" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C265" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D265" s="1">
         <v>615224</v>
@@ -5366,13 +5366,13 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A266" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C266" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D266" s="1">
         <v>553563</v>
@@ -5383,13 +5383,13 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A267" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C267" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D267" s="1">
         <v>511378</v>
@@ -5400,13 +5400,13 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A268" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C268" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D268" s="1">
         <v>219856</v>
@@ -5417,13 +5417,13 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A269" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C269" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D269" s="1">
         <v>168731</v>
@@ -5434,13 +5434,13 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A270" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C270" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D270" s="1">
         <v>2658</v>
@@ -5451,13 +5451,13 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A271" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C271" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D271" s="1">
         <v>36146447</v>
@@ -5470,7 +5470,7 @@
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D272" s="4">
         <f>SUM(D261:D270)-D271</f>
@@ -5483,13 +5483,13 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A273" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C273" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D273" s="1">
         <v>906517</v>
@@ -5500,13 +5500,13 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A274" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C274" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D274" s="1">
         <v>574950</v>
@@ -5517,13 +5517,13 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A275" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C275" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D275" s="1">
         <v>279789</v>
@@ -5534,13 +5534,13 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A276" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C276" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D276" s="1">
         <v>273405</v>
@@ -5551,13 +5551,13 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A277" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C277" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D277" s="1">
         <v>105701</v>
@@ -5568,13 +5568,13 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A278" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C278" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D278" s="1">
         <v>92962</v>
@@ -5585,13 +5585,13 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A279" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C279" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D279" s="1">
         <v>52462</v>
@@ -5602,13 +5602,13 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A280" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C280" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D280" s="1">
         <v>44810</v>
@@ -5619,13 +5619,13 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A281" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C281" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D281" s="1">
         <v>34180</v>
@@ -5636,13 +5636,13 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A282" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C282" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D282" s="1">
         <v>22189</v>
@@ -5653,13 +5653,13 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A283" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C283" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D283" s="1">
         <v>19058</v>
@@ -5670,13 +5670,13 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A284" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C284" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D284" s="1">
         <v>9031</v>
@@ -5687,13 +5687,13 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A285" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C285" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D285" s="1">
         <v>8853</v>
@@ -5704,13 +5704,13 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A286" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C286" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D286" s="1">
         <v>5946</v>
@@ -5721,13 +5721,13 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A287" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C287" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D287" s="1">
         <v>20621</v>
@@ -5738,13 +5738,13 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A288" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C288" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D288" s="1">
         <v>2450474</v>
@@ -5757,7 +5757,7 @@
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D289" s="4">
         <f>SUM(D273:D287)-D288</f>
@@ -5770,13 +5770,13 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A290" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B290" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C290" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D290" s="1">
         <v>533447</v>
@@ -5787,13 +5787,13 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A291" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B291" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C291" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D291" s="1">
         <v>430206</v>
@@ -5804,13 +5804,13 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A292" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B292" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C292" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D292" s="1">
         <v>137765</v>
@@ -5821,13 +5821,13 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A293" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B293" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C293" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D293" s="1">
         <v>82599</v>
@@ -5838,13 +5838,13 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A294" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B294" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C294" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D294" s="1">
         <v>69705</v>
@@ -5855,13 +5855,13 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A295" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B295" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C295" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D295" s="1">
         <v>61495</v>
@@ -5872,13 +5872,13 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A296" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B296" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C296" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D296" s="1">
         <v>56203</v>
@@ -5889,13 +5889,13 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A297" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B297" t="s">
+        <v>100</v>
+      </c>
+      <c r="C297" t="s">
         <v>102</v>
-      </c>
-      <c r="C297" t="s">
-        <v>104</v>
       </c>
       <c r="D297" s="1">
         <v>36107</v>
@@ -5906,13 +5906,13 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A298" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B298" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C298" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D298" s="1">
         <v>8565</v>
@@ -5923,13 +5923,13 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A299" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B299" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C299" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D299" s="1">
         <v>6750</v>
@@ -5940,13 +5940,13 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A300" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B300" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C300" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D300" s="1">
         <v>9361</v>
@@ -5957,13 +5957,13 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A301" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B301" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C301" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D301" s="1">
         <v>1432203</v>
@@ -5975,7 +5975,7 @@
     <row r="302" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A302" s="2"/>
       <c r="C302" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D302" s="4">
         <f>SUM(D290:D300)-D301</f>
@@ -5988,13 +5988,13 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A303" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C303" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D303" s="1">
         <v>255910</v>
@@ -6005,13 +6005,13 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A304" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C304" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D304" s="1">
         <v>161292</v>
@@ -6022,13 +6022,13 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A305" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C305" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D305" s="1">
         <v>149290</v>
@@ -6039,13 +6039,13 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A306" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C306" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D306" s="1">
         <v>102443</v>
@@ -6056,13 +6056,13 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A307" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C307" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D307" s="1">
         <v>77510</v>
@@ -6073,13 +6073,13 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A308" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C308" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D308" s="1">
         <v>76477</v>
@@ -6090,13 +6090,13 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A309" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C309" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D309" s="1">
         <v>48612</v>
@@ -6107,13 +6107,13 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A310" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C310" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D310" s="1">
         <v>47325</v>
@@ -6124,13 +6124,13 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A311" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C311" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D311" s="1">
         <v>46556</v>
@@ -6141,13 +6141,13 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A312" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C312" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D312" s="1">
         <v>44783</v>
@@ -6158,13 +6158,13 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A313" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C313" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D313" s="1">
         <v>42534</v>
@@ -6175,13 +6175,13 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A314" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C314" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D314" s="1">
         <v>33827</v>
@@ -6192,13 +6192,13 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A315" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C315" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D315" s="1">
         <v>31839</v>
@@ -6209,13 +6209,13 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A316" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C316" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D316" s="1">
         <v>30651</v>
@@ -6226,13 +6226,13 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A317" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C317" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D317" s="1">
         <v>22929</v>
@@ -6243,13 +6243,13 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A318" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C318" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D318" s="1">
         <v>18430</v>
@@ -6260,13 +6260,13 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A319" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C319" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D319" s="1">
         <v>16374</v>
@@ -6277,13 +6277,13 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A320" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C320" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D320" s="1">
         <v>14717</v>
@@ -6294,13 +6294,13 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A321" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C321" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D321" s="1">
         <v>12201</v>
@@ -6311,13 +6311,13 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A322" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C322" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D322" s="1">
         <v>10277</v>
@@ -6328,13 +6328,13 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A323" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C323" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D323" s="1">
         <v>8292</v>
@@ -6345,13 +6345,13 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A324" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C324" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D324" s="1">
         <v>5953</v>
@@ -6362,13 +6362,13 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A325" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C325" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D325" s="1">
         <v>20521</v>
@@ -6379,13 +6379,13 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A326" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C326" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D326" s="1">
         <v>1278743</v>
@@ -6398,7 +6398,7 @@
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D327" s="4">
         <f>SUM(D303:D325)-D326</f>
@@ -6411,13 +6411,13 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A328" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B328" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C328" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D328" s="1">
         <v>248047</v>
@@ -6428,13 +6428,13 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A329" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B329" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C329" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D329" s="1">
         <v>177490</v>
@@ -6445,13 +6445,13 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A330" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B330" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C330" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D330" s="1">
         <v>44088</v>
@@ -6462,13 +6462,13 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A331" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B331" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C331" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D331" s="1">
         <v>22428</v>
@@ -6479,13 +6479,13 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A332" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B332" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C332" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D332" s="1">
         <v>16413</v>
@@ -6496,13 +6496,13 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A333" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B333" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C333" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D333" s="1">
         <v>15630</v>
@@ -6513,13 +6513,13 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A334" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B334" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C334" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D334" s="1">
         <v>14785</v>
@@ -6530,13 +6530,13 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A335" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B335" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C335" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D335" s="1">
         <v>10285</v>
@@ -6547,13 +6547,13 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A336" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B336" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C336" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D336" s="1">
         <v>8511</v>
@@ -6564,13 +6564,13 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A337" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B337" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C337" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D337" s="1">
         <v>6294</v>
@@ -6581,13 +6581,13 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A338" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B338" t="s">
+        <v>19</v>
+      </c>
+      <c r="C338" t="s">
         <v>21</v>
-      </c>
-      <c r="C338" t="s">
-        <v>23</v>
       </c>
       <c r="D338" s="1">
         <v>5980</v>
@@ -6598,13 +6598,13 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A339" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B339" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C339" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D339" s="1">
         <v>9164</v>
@@ -6615,13 +6615,13 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A340" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B340" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C340" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D340" s="1">
         <v>579115</v>
@@ -6633,7 +6633,7 @@
     <row r="341" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A341" s="2"/>
       <c r="C341" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D341" s="4">
         <f>SUM(D328:D339)-D340</f>
@@ -6646,13 +6646,13 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A342" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B342" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C342" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D342" s="1">
         <v>300729</v>
@@ -6663,13 +6663,13 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A343" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B343" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C343" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D343" s="1">
         <v>77493</v>
@@ -6680,13 +6680,13 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A344" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B344" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C344" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D344" s="1">
         <v>59880</v>
@@ -6697,13 +6697,13 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A345" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B345" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C345" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D345" s="1">
         <v>49249</v>
@@ -6714,13 +6714,13 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A346" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B346" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C346" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D346" s="1">
         <v>487351</v>
@@ -6732,7 +6732,7 @@
     <row r="347" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A347" s="2"/>
       <c r="C347" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D347" s="4">
         <f>SUM(D342:D345)-D346</f>
@@ -6745,13 +6745,13 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A348" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B348" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C348" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D348" s="1">
         <v>35772</v>
@@ -6762,13 +6762,13 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A349" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B349" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C349" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D349" s="1">
         <v>34276</v>
@@ -6779,13 +6779,13 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A350" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B350" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C350" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D350" s="1">
         <v>9681</v>
@@ -6796,13 +6796,13 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A351" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B351" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C351" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D351" s="1">
         <v>6340</v>
@@ -6813,13 +6813,13 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A352" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B352" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C352" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D352" s="1">
         <v>6181</v>
@@ -6830,13 +6830,13 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A353" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B353" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C353" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D353" s="1">
         <v>4422</v>
@@ -6847,13 +6847,13 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A354" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B354" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C354" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D354" s="1">
         <v>12099</v>
@@ -6864,13 +6864,13 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A355" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B355" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C355" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D355" s="1">
         <v>108771</v>
@@ -6882,7 +6882,7 @@
     <row r="356" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A356" s="2"/>
       <c r="C356" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D356" s="4">
         <f>SUM(D348:D354)-D355</f>
@@ -6895,13 +6895,13 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A357" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B357" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C357" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D357" s="1">
         <v>12839</v>
@@ -6912,13 +6912,13 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A358" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B358" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C358" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D358" s="1">
         <v>2370</v>
@@ -6929,13 +6929,13 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A359" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B359" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C359" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D359" s="1">
         <v>15209</v>
@@ -6947,7 +6947,7 @@
     <row r="360" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A360" s="2"/>
       <c r="C360" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D360" s="4">
         <f>SUM(D357:D358)-D359</f>
@@ -6960,13 +6960,13 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A361" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B361" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C361" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D361" s="1">
         <v>3609</v>
@@ -6977,13 +6977,13 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A362" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B362" t="s">
+        <v>164</v>
+      </c>
+      <c r="C362" t="s">
         <v>166</v>
-      </c>
-      <c r="C362" t="s">
-        <v>168</v>
       </c>
       <c r="D362" s="1">
         <v>1368</v>
@@ -6994,13 +6994,13 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A363" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B363" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C363" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D363" s="1">
         <v>4487</v>
@@ -7011,13 +7011,13 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A364" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B364" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C364" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D364" s="1">
         <v>9464</v>
@@ -7029,7 +7029,7 @@
     <row r="365" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A365" s="2"/>
       <c r="C365" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D365" s="4">
         <f>SUM(D361:D363)-D364</f>
@@ -7042,13 +7042,13 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A366" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C366" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D366" s="1">
         <v>812902</v>
@@ -7059,13 +7059,13 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A367" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C367" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D367" s="1">
         <v>4599</v>
@@ -7076,13 +7076,13 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A368" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C368" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D368" s="1">
         <v>7814</v>
@@ -7093,13 +7093,13 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A369" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C369" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D369" s="1">
         <v>825315</v>
@@ -7110,7 +7110,7 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C370" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D370" s="4">
         <f>SUM(D366:D368)-D369</f>
@@ -7123,10 +7123,10 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A371" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C371" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D371" s="1">
         <v>17181036</v>
@@ -7137,13 +7137,13 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A372" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D372" s="1">
         <v>6810988</v>
@@ -7154,13 +7154,13 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A373" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C373" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D373" s="1">
         <v>3352140</v>
@@ -7171,13 +7171,13 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A374" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C374" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D374" s="1">
         <v>2833722</v>
@@ -7188,13 +7188,13 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A375" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C375" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D375" s="1">
         <v>120285</v>
@@ -7205,13 +7205,13 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A376" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C376" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D376" s="1">
         <v>109823</v>
@@ -7222,13 +7222,13 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A377" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D377" s="1">
         <v>55471</v>
@@ -7239,13 +7239,13 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A378" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C378" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D378" s="1">
         <v>47307</v>
@@ -7256,13 +7256,13 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A379" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C379" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D379" s="1">
         <v>46194</v>
@@ -7273,13 +7273,13 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A380" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C380" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D380" s="1">
         <v>42020</v>
@@ -7290,13 +7290,13 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A381" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C381" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D381" s="1">
         <v>20813</v>
@@ -7307,13 +7307,13 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A382" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C382" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D382" s="1">
         <v>17864</v>
@@ -7324,13 +7324,13 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A383" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C383" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D383" s="1">
         <v>15521</v>
@@ -7341,13 +7341,13 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A384" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D384" s="1">
         <v>15388</v>
@@ -7358,13 +7358,13 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A385" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C385" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D385" s="1">
         <v>13479</v>
@@ -7375,13 +7375,13 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A386" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C386" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D386" s="1">
         <v>6324</v>
@@ -7392,13 +7392,13 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A387" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C387" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D387" s="1">
         <v>6276</v>
@@ -7409,13 +7409,13 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A388" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C388" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D388" s="1">
         <v>5730</v>
@@ -7426,13 +7426,13 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A389" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C389" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D389" s="1">
         <v>5374</v>
@@ -7443,13 +7443,13 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A390" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C390" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D390" s="1">
         <v>21960</v>
@@ -7460,13 +7460,13 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A391" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C391" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D391" s="1">
         <v>13546679</v>
@@ -7479,7 +7479,7 @@
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D392" s="4">
         <f>SUM(D372:D390)-D391</f>
@@ -7492,13 +7492,13 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A393" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D393" s="1">
         <v>1575335</v>
@@ -7509,13 +7509,13 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A394" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D394" s="1">
         <v>1281741</v>
@@ -7526,13 +7526,13 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A395" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D395" s="1">
         <v>700581</v>
@@ -7543,13 +7543,13 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A396" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C396" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D396" s="1">
         <v>14963</v>
@@ -7560,13 +7560,13 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A397" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D397" s="1">
         <v>6738</v>
@@ -7577,13 +7577,13 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A398" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C398" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D398" s="1">
         <v>4926</v>
@@ -7594,13 +7594,13 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A399" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C399" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D399" s="1">
         <v>3584284</v>
@@ -7613,7 +7613,7 @@
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D400" s="4">
         <f>SUM(D393:D398)-D399</f>
@@ -7626,13 +7626,13 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A401" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B401" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D401" s="1">
         <v>12052</v>
@@ -7643,13 +7643,13 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A402" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B402" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C402" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D402" s="1">
         <v>7700</v>
@@ -7660,13 +7660,13 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A403" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B403" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C403" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D403" s="1">
         <v>19752</v>
@@ -7678,7 +7678,7 @@
     <row r="404" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A404" s="2"/>
       <c r="C404" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D404" s="4">
         <f>SUM(D401:D402)-D403</f>
@@ -7691,13 +7691,13 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A405" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D405" s="1">
         <v>9225</v>
@@ -7708,13 +7708,13 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A406" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C406" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D406" s="1">
         <v>9225</v>
@@ -7727,20 +7727,20 @@
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A408" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B408" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C408" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D408" s="1">
         <v>8981</v>
@@ -7751,13 +7751,13 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A409" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B409" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C409" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D409" s="1">
         <v>8981</v>
@@ -7769,20 +7769,20 @@
     <row r="410" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A410" s="2"/>
       <c r="C410" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A411" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C411" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D411" s="1">
         <v>5540</v>
@@ -7793,13 +7793,13 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A412" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D412" s="1">
         <v>3085</v>
@@ -7810,13 +7810,13 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A413" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D413" s="1">
         <v>8625</v>
@@ -7829,7 +7829,7 @@
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D414" s="4">
         <f>SUM(D411:D412)-D413</f>
@@ -7842,13 +7842,13 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A415" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C415" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D415" s="1">
         <v>3490</v>
@@ -7859,13 +7859,13 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A416" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C416" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D416" s="1">
         <v>3490</v>
@@ -7876,7 +7876,7 @@
     </row>
     <row r="417" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C417" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>

--- a/data/landings/cdfw/public/fish_bulletins/raw/fb95/raw/Tables21-27.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb95/raw/Tables21-27.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb95/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE9239D-DD38-4649-A559-A6FC2C30653A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A4756D-C0C4-3E48-9620-1592CE9EE1CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24340" yWindow="460" windowWidth="26560" windowHeight="24460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21940" yWindow="460" windowWidth="26560" windowHeight="24460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$417</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="213">
   <si>
     <t>Pacific halibut</t>
   </si>
@@ -235,9 +238,6 @@
     <t>Pacific oyster</t>
   </si>
   <si>
-    <t>Monterey region total*</t>
-  </si>
-  <si>
     <t>Anchovy</t>
   </si>
   <si>
@@ -653,6 +653,15 @@
   </si>
   <si>
     <t>pounds</t>
+  </si>
+  <si>
+    <t>Monterey region total</t>
+  </si>
+  <si>
+    <t>All species</t>
+  </si>
+  <si>
+    <t>All other species</t>
   </si>
 </sst>
 </file>
@@ -1018,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E417"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1033,27 +1042,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>188</v>
+        <v>173</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>3806175</v>
@@ -1064,10 +1076,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -1081,10 +1093,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -1093,15 +1105,15 @@
         <v>360764</v>
       </c>
       <c r="E4" s="1">
-        <v>2345069</v>
+        <v>2345669</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
@@ -1115,10 +1127,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -1132,13 +1144,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" s="1">
         <v>59234</v>
@@ -1149,13 +1161,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D8" s="1">
         <v>32437</v>
@@ -1166,10 +1178,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -1183,10 +1195,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -1200,13 +1212,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D11" s="1">
         <v>6824</v>
@@ -1217,10 +1229,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1234,10 +1246,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
@@ -1253,7 +1265,7 @@
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D14" s="4">
         <f>SUM(D3:D12)-D13</f>
@@ -1261,12 +1273,12 @@
       </c>
       <c r="E14" s="4">
         <f>SUM(E3:E12)-E13</f>
-        <v>-600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -1283,7 +1295,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -1300,7 +1312,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -1317,13 +1329,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D18" s="1">
         <v>26839</v>
@@ -1334,7 +1346,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -1351,13 +1363,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D20" s="1">
         <v>15263</v>
@@ -1368,7 +1380,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -1385,7 +1397,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -1403,7 +1415,7 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="C23" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D23" s="4">
         <f>SUM(D15:D21)-D22</f>
@@ -1416,10 +1428,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
@@ -1433,10 +1445,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C25" t="s">
         <v>24</v>
@@ -1450,10 +1462,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -1467,10 +1479,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -1484,16 +1496,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" s="1">
-        <v>2672</v>
+        <v>26720</v>
       </c>
       <c r="E28" s="1">
         <v>279494</v>
@@ -1501,10 +1513,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
@@ -1518,10 +1530,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
@@ -1535,10 +1547,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -1552,10 +1564,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1571,11 +1583,11 @@
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D33" s="4">
         <f>SUM(D24:D31)-D32</f>
-        <v>-24048</v>
+        <v>0</v>
       </c>
       <c r="E33" s="4">
         <f>SUM(E24:E31)-E32</f>
@@ -1584,7 +1596,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
@@ -1601,7 +1613,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
@@ -1618,7 +1630,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
@@ -1635,7 +1647,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B37" t="s">
         <v>33</v>
@@ -1652,7 +1664,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B38" t="s">
         <v>33</v>
@@ -1669,7 +1681,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B39" t="s">
         <v>33</v>
@@ -1687,7 +1699,7 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
       <c r="C40" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D40" s="4">
         <f>SUM(D34:D38)-D39</f>
@@ -1700,7 +1712,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B41" t="s">
         <v>35</v>
@@ -1717,7 +1729,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B42" t="s">
         <v>35</v>
@@ -1734,7 +1746,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B43" t="s">
         <v>35</v>
@@ -1751,7 +1763,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B44" t="s">
         <v>35</v>
@@ -1769,7 +1781,7 @@
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="C45" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D45" s="4">
         <f>SUM(D41:D43)-D44</f>
@@ -1782,13 +1794,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B46" t="s">
         <v>37</v>
       </c>
       <c r="C46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D46" s="1">
         <v>9588</v>
@@ -1799,7 +1811,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B47" t="s">
         <v>37</v>
@@ -1816,7 +1828,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B48" t="s">
         <v>37</v>
@@ -1834,7 +1846,7 @@
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
       <c r="C49" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D49" s="4">
         <f>SUM(D46:D47)-D48</f>
@@ -1847,13 +1859,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B50" t="s">
         <v>38</v>
       </c>
       <c r="C50" t="s">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="D50" s="1">
         <v>6610</v>
@@ -1864,7 +1876,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B51" t="s">
         <v>38</v>
@@ -1881,17 +1893,24 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C52" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>186</v>
+        <v>174</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
       </c>
       <c r="D53" s="1">
         <v>290832</v>
@@ -1902,10 +1921,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C54" t="s">
         <v>3</v>
@@ -1919,10 +1938,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
@@ -1936,10 +1955,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C56" t="s">
         <v>40</v>
@@ -1953,10 +1972,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C57" t="s">
         <v>39</v>
@@ -1970,16 +1989,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C58" t="s">
         <v>41</v>
       </c>
       <c r="D58" s="1">
-        <v>150740</v>
+        <v>156740</v>
       </c>
       <c r="E58" s="1">
         <v>1021081</v>
@@ -1989,11 +2008,11 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D59" s="4">
         <f>SUM(D54:D57)-D58</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="E59" s="4">
         <f>SUM(E54:E57)-E58</f>
@@ -2002,7 +2021,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B60" t="s">
         <v>42</v>
@@ -2019,7 +2038,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B61" t="s">
         <v>42</v>
@@ -2036,7 +2055,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B62" t="s">
         <v>42</v>
@@ -2053,7 +2072,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B63" t="s">
         <v>42</v>
@@ -2071,7 +2090,7 @@
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="2"/>
       <c r="C64" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D64" s="4">
         <f>SUM(D60:D62)-D63</f>
@@ -2084,7 +2103,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B65" t="s">
         <v>44</v>
@@ -2093,15 +2112,15 @@
         <v>3</v>
       </c>
       <c r="D65" s="1">
-        <v>22810</v>
+        <v>22840</v>
       </c>
       <c r="E65" s="1">
-        <v>10224</v>
+        <v>102240</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B66" t="s">
         <v>44</v>
@@ -2118,7 +2137,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B67" t="s">
         <v>44</v>
@@ -2135,7 +2154,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B68" t="s">
         <v>44</v>
@@ -2153,20 +2172,20 @@
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
       <c r="C69" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D69" s="4">
         <f>SUM(D65:D67)-D68</f>
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="E69" s="4">
         <f>SUM(E65:E67)-E68</f>
-        <v>-92016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B70" t="s">
         <v>45</v>
@@ -2183,13 +2202,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B71" t="s">
         <v>45</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D71" s="1">
         <v>7811</v>
@@ -2200,7 +2219,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B72" t="s">
         <v>45</v>
@@ -2217,7 +2236,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B73" t="s">
         <v>45</v>
@@ -2234,7 +2253,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B74" t="s">
         <v>45</v>
@@ -2251,7 +2270,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B75" t="s">
         <v>45</v>
@@ -2269,7 +2288,7 @@
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="2"/>
       <c r="C76" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D76" s="4">
         <f>SUM(D70:D74)-D75</f>
@@ -2282,10 +2301,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C77" t="s">
         <v>47</v>
@@ -2299,10 +2318,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2318,14 +2337,18 @@
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0</v>
+      </c>
+      <c r="E79" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B80" t="s">
         <v>48</v>
@@ -2342,7 +2365,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B81" t="s">
         <v>48</v>
@@ -2360,17 +2383,21 @@
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="2"/>
       <c r="C82" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>43</v>
@@ -2384,10 +2411,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2403,14 +2430,18 @@
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0</v>
+      </c>
+      <c r="E85" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B86" t="s">
         <v>49</v>
@@ -2427,7 +2458,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B87" t="s">
         <v>49</v>
@@ -2439,21 +2470,21 @@
         <v>2448</v>
       </c>
       <c r="E87" s="1">
-        <v>1096</v>
+        <v>10960</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B88" t="s">
         <v>49</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>28</v>
+        <v>212</v>
       </c>
       <c r="D88" s="1">
-        <v>204</v>
+        <v>2040</v>
       </c>
       <c r="E88" s="1">
         <v>8265</v>
@@ -2461,7 +2492,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B89" t="s">
         <v>49</v>
@@ -2478,23 +2509,26 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C90" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D90" s="4">
         <f>SUM(D86:D88)-D89</f>
-        <v>-1836</v>
+        <v>0</v>
       </c>
       <c r="E90" s="4">
         <f>SUM(E86:E88)-E89</f>
-        <v>-9864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="B91" t="s">
+        <v>148</v>
       </c>
       <c r="C91" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="D91" s="1">
         <v>3876140</v>
@@ -2505,7 +2539,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B92" t="s">
         <v>50</v>
@@ -2522,7 +2556,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B93" t="s">
         <v>50</v>
@@ -2539,7 +2573,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B94" t="s">
         <v>50</v>
@@ -2556,7 +2590,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B95" t="s">
         <v>50</v>
@@ -2573,13 +2607,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B96" t="s">
         <v>50</v>
       </c>
       <c r="C96" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D96" s="1">
         <v>124695</v>
@@ -2590,7 +2624,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B97" t="s">
         <v>50</v>
@@ -2607,7 +2641,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B98" t="s">
         <v>50</v>
@@ -2624,7 +2658,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B99" t="s">
         <v>50</v>
@@ -2641,7 +2675,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B100" t="s">
         <v>50</v>
@@ -2658,7 +2692,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B101" t="s">
         <v>50</v>
@@ -2675,7 +2709,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B102" t="s">
         <v>50</v>
@@ -2692,7 +2726,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B103" t="s">
         <v>50</v>
@@ -2701,7 +2735,7 @@
         <v>55</v>
       </c>
       <c r="D103" s="1">
-        <v>18081</v>
+        <v>18084</v>
       </c>
       <c r="E103" s="1">
         <v>47540</v>
@@ -2709,7 +2743,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B104" t="s">
         <v>50</v>
@@ -2726,7 +2760,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B105" t="s">
         <v>50</v>
@@ -2743,7 +2777,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B106" t="s">
         <v>50</v>
@@ -2760,7 +2794,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B107" t="s">
         <v>50</v>
@@ -2769,7 +2803,7 @@
         <v>28</v>
       </c>
       <c r="D107" s="1">
-        <v>4436</v>
+        <v>44360</v>
       </c>
       <c r="E107" s="1">
         <v>1044591</v>
@@ -2777,7 +2811,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B108" t="s">
         <v>50</v>
@@ -2795,11 +2829,11 @@
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="2"/>
       <c r="C109" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D109" s="4">
         <f>SUM(D92:D107)-D108</f>
-        <v>-39927</v>
+        <v>0</v>
       </c>
       <c r="E109" s="4">
         <f>SUM(E92:E107)-E108</f>
@@ -2808,10 +2842,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C110" t="s">
         <v>3</v>
@@ -2825,10 +2859,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C111" t="s">
         <v>25</v>
@@ -2842,10 +2876,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
@@ -2859,10 +2893,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C113" t="s">
         <v>54</v>
@@ -2876,10 +2910,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C114" t="s">
         <v>56</v>
@@ -2893,10 +2927,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C115" t="s">
         <v>0</v>
@@ -2910,10 +2944,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -2927,10 +2961,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C117" t="s">
         <v>58</v>
@@ -2946,7 +2980,7 @@
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D118" s="4">
         <f>SUM(D110:D116)-D117</f>
@@ -2959,13 +2993,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B119" t="s">
         <v>59</v>
       </c>
       <c r="C119" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D119" s="1">
         <v>119917</v>
@@ -2976,7 +3010,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B120" t="s">
         <v>59</v>
@@ -2993,13 +3027,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B121" t="s">
         <v>59</v>
       </c>
       <c r="C121" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D121" s="1">
         <v>71775</v>
@@ -3010,7 +3044,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B122" t="s">
         <v>59</v>
@@ -3027,7 +3061,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B123" t="s">
         <v>59</v>
@@ -3044,7 +3078,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B124" t="s">
         <v>59</v>
@@ -3061,7 +3095,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B125" t="s">
         <v>59</v>
@@ -3078,7 +3112,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B126" t="s">
         <v>59</v>
@@ -3095,7 +3129,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B127" t="s">
         <v>59</v>
@@ -3113,7 +3147,7 @@
     <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A128" s="2"/>
       <c r="C128" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D128" s="4">
         <f>SUM(D119:D126)-D127</f>
@@ -3126,10 +3160,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B129" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C129" t="s">
         <v>61</v>
@@ -3143,10 +3177,10 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B130" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C130" t="s">
         <v>25</v>
@@ -3160,10 +3194,10 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B131" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C131" t="s">
         <v>3</v>
@@ -3177,10 +3211,10 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B132" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C132" t="s">
         <v>41</v>
@@ -3195,7 +3229,7 @@
     <row r="133" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A133" s="2"/>
       <c r="C133" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D133" s="4">
         <f>SUM(D129:D131)-D132</f>
@@ -3208,10 +3242,10 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A134" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C134" t="s">
         <v>3</v>
@@ -3225,10 +3259,10 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A135" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C135" t="s">
         <v>62</v>
@@ -3242,10 +3276,10 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A136" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -3259,10 +3293,10 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C137" t="s">
         <v>41</v>
@@ -3278,7 +3312,7 @@
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D138" s="4">
         <f>SUM(D134:D136)-D137</f>
@@ -3291,7 +3325,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A139" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B139" t="s">
         <v>63</v>
@@ -3308,7 +3342,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B140" t="s">
         <v>63</v>
@@ -3325,7 +3359,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A141" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B141" t="s">
         <v>63</v>
@@ -3342,13 +3376,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A142" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B142" t="s">
         <v>63</v>
       </c>
       <c r="C142" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D142" s="1">
         <v>5319</v>
@@ -3359,7 +3393,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B143" t="s">
         <v>63</v>
@@ -3376,7 +3410,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A144" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B144" t="s">
         <v>63</v>
@@ -3394,7 +3428,7 @@
     <row r="145" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A145" s="2"/>
       <c r="C145" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D145" s="4">
         <f>SUM(D139:D143)-D144</f>
@@ -3407,7 +3441,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A146" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B146" t="s">
         <v>8</v>
@@ -3424,7 +3458,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B147" t="s">
         <v>8</v>
@@ -3441,7 +3475,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B148" t="s">
         <v>8</v>
@@ -3459,7 +3493,7 @@
     <row r="149" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A149" s="2"/>
       <c r="C149" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D149" s="4">
         <f>SUM(D146:D147)-D148</f>
@@ -3472,7 +3506,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A150" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B150" t="s">
         <v>69</v>
@@ -3489,7 +3523,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B151" t="s">
         <v>69</v>
@@ -3506,7 +3540,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A152" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B152" t="s">
         <v>69</v>
@@ -3523,7 +3557,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A153" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B153" t="s">
         <v>69</v>
@@ -3541,7 +3575,7 @@
     <row r="154" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A154" s="2"/>
       <c r="C154" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D154" s="4">
         <f>SUM(D150:D152)-D153</f>
@@ -3554,13 +3588,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A155" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B155" t="s">
         <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D155" s="1">
         <v>6115</v>
@@ -3571,7 +3605,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B156" t="s">
         <v>9</v>
@@ -3588,7 +3622,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B157" t="s">
         <v>9</v>
@@ -3606,7 +3640,7 @@
     <row r="158" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A158" s="2"/>
       <c r="C158" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D158" s="4">
         <f>SUM(D155:D156)-D157</f>
@@ -3619,7 +3653,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B159" t="s">
         <v>10</v>
@@ -3628,7 +3662,7 @@
         <v>25</v>
       </c>
       <c r="D159" s="1">
-        <v>10070</v>
+        <v>10076</v>
       </c>
       <c r="E159" s="1">
         <v>72749</v>
@@ -3636,7 +3670,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A160" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B160" t="s">
         <v>10</v>
@@ -3653,13 +3687,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A161" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B161" t="s">
         <v>10</v>
       </c>
       <c r="C161" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D161" s="1">
         <v>10825</v>
@@ -3671,11 +3705,11 @@
     <row r="162" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A162" s="2"/>
       <c r="C162" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D162" s="4">
         <f>SUM(D159:D160)-D161</f>
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="E162" s="4">
         <f>SUM(E159:E160)-E161</f>
@@ -3684,13 +3718,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A163" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C163" t="s">
-        <v>28</v>
+        <v>211</v>
       </c>
       <c r="D163" s="1">
         <v>8815</v>
@@ -3701,7 +3735,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A164" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>38</v>
@@ -3718,17 +3752,24 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C165" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D165" s="4"/>
-      <c r="E165" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="D165" s="4">
+        <v>0</v>
+      </c>
+      <c r="E165" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A166" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="B166" t="s">
+        <v>210</v>
       </c>
       <c r="C166" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="D166" s="1">
         <v>2860297</v>
@@ -3739,13 +3780,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A167" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B167" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C167" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D167" s="1">
         <v>784776</v>
@@ -3756,10 +3797,10 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B168" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C168" t="s">
         <v>51</v>
@@ -3773,10 +3814,10 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A169" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B169" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C169" t="s">
         <v>11</v>
@@ -3790,13 +3831,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A170" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B170" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C170" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D170" s="1">
         <v>162747</v>
@@ -3807,16 +3848,16 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A171" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B171" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C171" t="s">
         <v>54</v>
       </c>
       <c r="D171" s="1">
-        <v>155461</v>
+        <v>155464</v>
       </c>
       <c r="E171" s="1">
         <v>2573901</v>
@@ -3824,10 +3865,10 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A172" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B172" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C172" t="s">
         <v>3</v>
@@ -3841,13 +3882,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A173" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C173" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D173" s="1">
         <v>15805</v>
@@ -3858,13 +3899,13 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C174" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D174" s="1">
         <v>15284</v>
@@ -3875,10 +3916,10 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A175" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B175" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C175" t="s">
         <v>12</v>
@@ -3892,10 +3933,10 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C176" t="s">
         <v>1</v>
@@ -3909,13 +3950,13 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A177" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C177" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D177" s="1">
         <v>10617</v>
@@ -3926,13 +3967,13 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C178" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D178" s="1">
         <v>10360</v>
@@ -3943,10 +3984,10 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A179" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B179" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C179" t="s">
         <v>13</v>
@@ -3960,13 +4001,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A180" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B180" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C180" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D180" s="1">
         <v>7200</v>
@@ -3977,10 +4018,10 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A181" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B181" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C181" t="s">
         <v>56</v>
@@ -3994,10 +4035,10 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A182" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B182" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C182" t="s">
         <v>39</v>
@@ -4011,10 +4052,10 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A183" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B183" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C183" t="s">
         <v>41</v>
@@ -4029,11 +4070,11 @@
     <row r="184" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A184" s="2"/>
       <c r="C184" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D184" s="4">
         <f>SUM(D167:D182)-D183</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E184" s="4">
         <f>SUM(E167:E182)-E183</f>
@@ -4042,10 +4083,10 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A185" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C185" t="s">
         <v>51</v>
@@ -4059,13 +4100,13 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A186" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C186" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D186" s="1">
         <v>143635</v>
@@ -4076,10 +4117,10 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A187" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C187" t="s">
         <v>3</v>
@@ -4093,16 +4134,16 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A188" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D188" s="1">
-        <v>494</v>
+        <v>49400</v>
       </c>
       <c r="E188" s="1">
         <v>2352405</v>
@@ -4110,10 +4151,10 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A189" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C189" t="s">
         <v>12</v>
@@ -4127,10 +4168,10 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A190" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C190" t="s">
         <v>34</v>
@@ -4144,10 +4185,10 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A191" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -4161,10 +4202,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A192" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -4180,11 +4221,11 @@
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D193" s="4">
         <f>SUM(D185:D191)-D192</f>
-        <v>-48906</v>
+        <v>0</v>
       </c>
       <c r="E193" s="4">
         <f>SUM(E185:E191)-E192</f>
@@ -4193,10 +4234,10 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A194" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C194" t="s">
         <v>26</v>
@@ -4210,13 +4251,13 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A195" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C195" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D195" s="1">
         <v>67350</v>
@@ -4227,10 +4268,10 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A196" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C196" t="s">
         <v>34</v>
@@ -4244,10 +4285,10 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A197" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C197" t="s">
         <v>61</v>
@@ -4261,10 +4302,10 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C198" t="s">
         <v>6</v>
@@ -4278,13 +4319,13 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A199" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C199" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D199" s="1">
         <v>9567</v>
@@ -4295,13 +4336,13 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A200" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C200" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D200" s="1">
         <v>7564</v>
@@ -4312,13 +4353,13 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A201" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C201" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D201" s="1">
         <v>6589</v>
@@ -4329,10 +4370,10 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A202" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -4346,10 +4387,10 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A203" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -4363,7 +4404,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C204" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D204" s="4">
         <f>SUM(D194:D202)-D203</f>
@@ -4376,10 +4417,13 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A205" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>193</v>
+        <v>177</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C205" t="s">
+        <v>5</v>
       </c>
       <c r="D205" s="1">
         <v>1435196</v>
@@ -4390,13 +4434,13 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A206" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D206" s="1">
         <v>128453</v>
@@ -4407,10 +4451,10 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A207" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C207" t="s">
         <v>20</v>
@@ -4424,10 +4468,10 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A208" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C208" t="s">
         <v>23</v>
@@ -4441,10 +4485,10 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A209" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C209" t="s">
         <v>1</v>
@@ -4458,13 +4502,13 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A210" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C210" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D210" s="1">
         <v>36552</v>
@@ -4475,10 +4519,10 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A211" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C211" t="s">
         <v>14</v>
@@ -4492,13 +4536,13 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A212" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C212" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D212" s="1">
         <v>19258</v>
@@ -4509,10 +4553,10 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A213" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C213" t="s">
         <v>17</v>
@@ -4526,13 +4570,13 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A214" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C214" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D214" s="1">
         <v>11056</v>
@@ -4543,10 +4587,10 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A215" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C215" t="s">
         <v>21</v>
@@ -4560,10 +4604,10 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A216" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C216" t="s">
         <v>54</v>
@@ -4577,10 +4621,10 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A217" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C217" t="s">
         <v>25</v>
@@ -4594,13 +4638,13 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A218" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C218" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D218" s="1">
         <v>5086</v>
@@ -4611,10 +4655,10 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A219" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -4628,10 +4672,10 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A220" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4647,7 +4691,7 @@
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D221" s="4">
         <f>SUM(D206:D219)-D220</f>
@@ -4660,10 +4704,10 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A222" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>51</v>
@@ -4677,13 +4721,13 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A223" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C223" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D223" s="1">
         <v>23518</v>
@@ -4694,13 +4738,13 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A224" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C224" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D224" s="1">
         <v>23278</v>
@@ -4711,10 +4755,10 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A225" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C225" t="s">
         <v>25</v>
@@ -4728,10 +4772,10 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A226" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C226" t="s">
         <v>54</v>
@@ -4745,10 +4789,10 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A227" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -4762,10 +4806,10 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A228" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4781,7 +4825,7 @@
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D229" s="4">
         <f>SUM(D222:D227)-D228</f>
@@ -4794,13 +4838,13 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A230" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B230" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C230" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D230" s="1">
         <v>142472</v>
@@ -4811,13 +4855,13 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A231" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B231" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C231" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D231" s="1">
         <v>92762</v>
@@ -4828,13 +4872,13 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A232" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B232" t="s">
+        <v>83</v>
+      </c>
+      <c r="C232" t="s">
         <v>84</v>
-      </c>
-      <c r="C232" t="s">
-        <v>85</v>
       </c>
       <c r="D232" s="1">
         <v>23411</v>
@@ -4845,13 +4889,13 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A233" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B233" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C233" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D233" s="1">
         <v>10955</v>
@@ -4862,13 +4906,13 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A234" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B234" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C234" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D234" s="1">
         <v>6502</v>
@@ -4879,10 +4923,10 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A235" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B235" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C235" t="s">
         <v>14</v>
@@ -4896,10 +4940,10 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A236" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B236" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C236" t="s">
         <v>39</v>
@@ -4913,10 +4957,10 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A237" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B237" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4931,7 +4975,7 @@
     <row r="238" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A238" s="2"/>
       <c r="C238" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D238" s="4">
         <f>SUM(D230:D236)-D237</f>
@@ -4944,10 +4988,10 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A239" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>51</v>
@@ -4961,10 +5005,10 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A240" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C240" t="s">
         <v>34</v>
@@ -4978,13 +5022,13 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A241" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C241" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D241" s="1">
         <v>12517</v>
@@ -4995,13 +5039,13 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A242" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C242" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D242" s="1">
         <v>9705</v>
@@ -5012,10 +5056,10 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A243" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C243" t="s">
         <v>14</v>
@@ -5029,10 +5073,10 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A244" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -5046,10 +5090,10 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A245" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C245" t="s">
         <v>41</v>
@@ -5065,7 +5109,7 @@
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D246" s="4">
         <f>SUM(D239:D244)-D245</f>
@@ -5078,13 +5122,13 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A247" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C247" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D247" s="1">
         <v>72948</v>
@@ -5095,10 +5139,10 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A248" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -5114,20 +5158,24 @@
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D249" s="4"/>
-      <c r="E249" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="D249" s="4">
+        <v>0</v>
+      </c>
+      <c r="E249" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A250" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B250" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C250" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D250" s="1">
         <v>26508</v>
@@ -5138,10 +5186,10 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A251" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B251" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5156,17 +5204,21 @@
     <row r="252" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A252" s="2"/>
       <c r="C252" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D252" s="4"/>
-      <c r="E252" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="D252" s="4">
+        <v>0</v>
+      </c>
+      <c r="E252" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A253" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D253" s="1">
         <v>5724</v>
@@ -5177,10 +5229,10 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A254" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -5194,10 +5246,10 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A255" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -5213,7 +5265,7 @@
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D256" s="4">
         <f>SUM(D253:D254)-D255</f>
@@ -5226,13 +5278,13 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A257" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C257" t="s">
-        <v>28</v>
+        <v>211</v>
       </c>
       <c r="D257" s="1">
         <v>4313</v>
@@ -5243,7 +5295,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A258" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>38</v>
@@ -5260,17 +5312,24 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C259" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D259" s="4"/>
-      <c r="E259" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="D259" s="4">
+        <v>0</v>
+      </c>
+      <c r="E259" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A260" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>208</v>
+        <v>178</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C260" t="s">
+        <v>5</v>
       </c>
       <c r="D260" s="1">
         <v>42533092</v>
@@ -5281,13 +5340,13 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A261" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C261" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D261" s="1">
         <v>19270510</v>
@@ -5298,13 +5357,13 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A262" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C262" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D262" s="1">
         <v>6780114</v>
@@ -5315,13 +5374,13 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A263" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D263" s="1">
         <v>4731089</v>
@@ -5332,13 +5391,13 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A264" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C264" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D264" s="1">
         <v>3293324</v>
@@ -5349,13 +5408,13 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A265" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C265" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D265" s="1">
         <v>615224</v>
@@ -5366,13 +5425,13 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A266" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C266" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D266" s="1">
         <v>553563</v>
@@ -5383,13 +5442,13 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A267" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C267" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D267" s="1">
         <v>511378</v>
@@ -5400,13 +5459,13 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A268" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C268" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D268" s="1">
         <v>219856</v>
@@ -5417,13 +5476,13 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A269" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C269" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D269" s="1">
         <v>168731</v>
@@ -5434,13 +5493,13 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A270" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C270" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D270" s="1">
         <v>2658</v>
@@ -5451,10 +5510,10 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A271" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5470,7 +5529,7 @@
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D272" s="4">
         <f>SUM(D261:D270)-D271</f>
@@ -5483,10 +5542,10 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A273" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C273" t="s">
         <v>11</v>
@@ -5500,13 +5559,13 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A274" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C274" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D274" s="1">
         <v>574950</v>
@@ -5517,13 +5576,13 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A275" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C275" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D275" s="1">
         <v>279789</v>
@@ -5534,10 +5593,10 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A276" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C276" t="s">
         <v>52</v>
@@ -5551,13 +5610,13 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A277" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C277" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D277" s="1">
         <v>105701</v>
@@ -5568,10 +5627,10 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A278" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C278" t="s">
         <v>13</v>
@@ -5585,13 +5644,13 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A279" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C279" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D279" s="1">
         <v>52462</v>
@@ -5602,13 +5661,13 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A280" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C280" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D280" s="1">
         <v>44810</v>
@@ -5619,13 +5678,13 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A281" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C281" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D281" s="1">
         <v>34180</v>
@@ -5636,10 +5695,10 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A282" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C282" t="s">
         <v>23</v>
@@ -5653,13 +5712,13 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A283" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C283" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D283" s="1">
         <v>19058</v>
@@ -5670,13 +5729,13 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A284" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C284" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D284" s="1">
         <v>9031</v>
@@ -5687,13 +5746,13 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A285" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C285" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D285" s="1">
         <v>8853</v>
@@ -5704,13 +5763,13 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A286" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C286" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D286" s="1">
         <v>5946</v>
@@ -5721,10 +5780,10 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A287" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C287" t="s">
         <v>39</v>
@@ -5738,10 +5797,10 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A288" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5757,7 +5816,7 @@
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D289" s="4">
         <f>SUM(D273:D287)-D288</f>
@@ -5770,13 +5829,13 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A290" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B290" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C290" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D290" s="1">
         <v>533447</v>
@@ -5787,10 +5846,10 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A291" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B291" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C291" t="s">
         <v>11</v>
@@ -5804,13 +5863,13 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A292" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B292" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C292" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D292" s="1">
         <v>137765</v>
@@ -5821,10 +5880,10 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A293" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B293" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C293" t="s">
         <v>13</v>
@@ -5838,13 +5897,13 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A294" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B294" t="s">
+        <v>99</v>
+      </c>
+      <c r="C294" t="s">
         <v>100</v>
-      </c>
-      <c r="C294" t="s">
-        <v>101</v>
       </c>
       <c r="D294" s="1">
         <v>69705</v>
@@ -5855,10 +5914,10 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A295" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B295" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C295" t="s">
         <v>12</v>
@@ -5872,10 +5931,10 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A296" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B296" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C296" t="s">
         <v>23</v>
@@ -5889,13 +5948,13 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A297" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B297" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C297" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D297" s="1">
         <v>36107</v>
@@ -5906,13 +5965,13 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A298" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B298" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C298" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D298" s="1">
         <v>8565</v>
@@ -5923,13 +5982,13 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A299" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B299" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C299" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D299" s="1">
         <v>6750</v>
@@ -5940,10 +5999,10 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A300" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B300" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -5957,13 +6016,13 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A301" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B301" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C301" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D301" s="1">
         <v>1432203</v>
@@ -5975,7 +6034,7 @@
     <row r="302" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A302" s="2"/>
       <c r="C302" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D302" s="4">
         <f>SUM(D290:D300)-D301</f>
@@ -5988,10 +6047,10 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A303" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C303" t="s">
         <v>15</v>
@@ -6005,13 +6064,13 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A304" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C304" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D304" s="1">
         <v>161292</v>
@@ -6022,13 +6081,13 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A305" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C305" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D305" s="1">
         <v>149290</v>
@@ -6039,13 +6098,13 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A306" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C306" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D306" s="1">
         <v>102443</v>
@@ -6056,13 +6115,13 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A307" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C307" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D307" s="1">
         <v>77510</v>
@@ -6073,13 +6132,13 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A308" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C308" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D308" s="1">
         <v>76477</v>
@@ -6090,13 +6149,13 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A309" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C309" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D309" s="1">
         <v>48612</v>
@@ -6107,13 +6166,13 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A310" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C310" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D310" s="1">
         <v>47325</v>
@@ -6124,13 +6183,13 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A311" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C311" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D311" s="1">
         <v>46556</v>
@@ -6141,10 +6200,10 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A312" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C312" t="s">
         <v>14</v>
@@ -6158,13 +6217,13 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A313" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C313" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D313" s="1">
         <v>42534</v>
@@ -6175,13 +6234,13 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A314" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C314" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D314" s="1">
         <v>33827</v>
@@ -6192,10 +6251,10 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A315" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C315" t="s">
         <v>16</v>
@@ -6209,10 +6268,10 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A316" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C316" t="s">
         <v>17</v>
@@ -6226,10 +6285,10 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A317" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C317" t="s">
         <v>13</v>
@@ -6243,13 +6302,13 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A318" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C318" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D318" s="1">
         <v>18430</v>
@@ -6260,13 +6319,13 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A319" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C319" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D319" s="1">
         <v>16374</v>
@@ -6277,13 +6336,13 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A320" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C320" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D320" s="1">
         <v>14717</v>
@@ -6294,13 +6353,13 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A321" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C321" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D321" s="1">
         <v>12201</v>
@@ -6311,13 +6370,13 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A322" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C322" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D322" s="1">
         <v>10277</v>
@@ -6328,13 +6387,13 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A323" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C323" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D323" s="1">
         <v>8292</v>
@@ -6345,10 +6404,10 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A324" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C324" t="s">
         <v>18</v>
@@ -6362,10 +6421,10 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A325" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -6379,10 +6438,10 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A326" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -6398,7 +6457,7 @@
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D327" s="4">
         <f>SUM(D303:D325)-D326</f>
@@ -6411,7 +6470,7 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A328" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B328" t="s">
         <v>19</v>
@@ -6428,13 +6487,13 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A329" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B329" t="s">
         <v>19</v>
       </c>
       <c r="C329" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D329" s="1">
         <v>177490</v>
@@ -6445,7 +6504,7 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A330" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B330" t="s">
         <v>19</v>
@@ -6462,13 +6521,13 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A331" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B331" t="s">
         <v>19</v>
       </c>
       <c r="C331" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D331" s="1">
         <v>22428</v>
@@ -6479,7 +6538,7 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A332" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B332" t="s">
         <v>19</v>
@@ -6496,13 +6555,13 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A333" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B333" t="s">
         <v>19</v>
       </c>
       <c r="C333" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D333" s="1">
         <v>15630</v>
@@ -6513,13 +6572,13 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A334" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B334" t="s">
         <v>19</v>
       </c>
       <c r="C334" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D334" s="1">
         <v>14785</v>
@@ -6530,13 +6589,13 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A335" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B335" t="s">
         <v>19</v>
       </c>
       <c r="C335" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D335" s="1">
         <v>10285</v>
@@ -6547,13 +6606,13 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A336" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B336" t="s">
         <v>19</v>
       </c>
       <c r="C336" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D336" s="1">
         <v>8511</v>
@@ -6564,13 +6623,13 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A337" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B337" t="s">
         <v>19</v>
       </c>
       <c r="C337" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D337" s="1">
         <v>6294</v>
@@ -6581,7 +6640,7 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A338" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B338" t="s">
         <v>19</v>
@@ -6598,7 +6657,7 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A339" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B339" t="s">
         <v>19</v>
@@ -6615,7 +6674,7 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A340" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B340" t="s">
         <v>19</v>
@@ -6633,7 +6692,7 @@
     <row r="341" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A341" s="2"/>
       <c r="C341" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D341" s="4">
         <f>SUM(D328:D339)-D340</f>
@@ -6646,10 +6705,10 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A342" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B342" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C342" t="s">
         <v>36</v>
@@ -6663,10 +6722,10 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A343" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B343" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C343" t="s">
         <v>0</v>
@@ -6680,10 +6739,10 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A344" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B344" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C344" t="s">
         <v>6</v>
@@ -6697,13 +6756,13 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A345" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B345" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C345" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D345" s="1">
         <v>49249</v>
@@ -6714,10 +6773,10 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A346" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B346" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -6732,7 +6791,7 @@
     <row r="347" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A347" s="2"/>
       <c r="C347" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D347" s="4">
         <f>SUM(D342:D345)-D346</f>
@@ -6745,10 +6804,10 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A348" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B348" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C348" t="s">
         <v>22</v>
@@ -6762,13 +6821,13 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A349" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B349" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C349" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D349" s="1">
         <v>34276</v>
@@ -6779,13 +6838,13 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A350" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B350" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C350" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D350" s="1">
         <v>9681</v>
@@ -6796,13 +6855,13 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A351" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B351" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C351" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D351" s="1">
         <v>6340</v>
@@ -6813,10 +6872,10 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A352" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B352" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C352" t="s">
         <v>23</v>
@@ -6830,13 +6889,13 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A353" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B353" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C353" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D353" s="1">
         <v>4422</v>
@@ -6847,10 +6906,10 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A354" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B354" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
@@ -6864,10 +6923,10 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A355" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B355" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -6882,7 +6941,7 @@
     <row r="356" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A356" s="2"/>
       <c r="C356" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D356" s="4">
         <f>SUM(D348:D354)-D355</f>
@@ -6895,10 +6954,10 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A357" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B357" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C357" t="s">
         <v>20</v>
@@ -6912,10 +6971,10 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A358" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B358" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C358" t="s">
         <v>28</v>
@@ -6929,10 +6988,10 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A359" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B359" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -6947,7 +7006,7 @@
     <row r="360" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A360" s="2"/>
       <c r="C360" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D360" s="4">
         <f>SUM(D357:D358)-D359</f>
@@ -6960,13 +7019,13 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A361" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B361" t="s">
+        <v>163</v>
+      </c>
+      <c r="C361" t="s">
         <v>164</v>
-      </c>
-      <c r="C361" t="s">
-        <v>165</v>
       </c>
       <c r="D361" s="1">
         <v>3609</v>
@@ -6977,13 +7036,13 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A362" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B362" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C362" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D362" s="1">
         <v>1368</v>
@@ -6994,10 +7053,10 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A363" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B363" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -7011,10 +7070,10 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A364" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B364" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -7029,7 +7088,7 @@
     <row r="365" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A365" s="2"/>
       <c r="C365" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D365" s="4">
         <f>SUM(D361:D363)-D364</f>
@@ -7042,13 +7101,13 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A366" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C366" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D366" s="1">
         <v>812902</v>
@@ -7059,13 +7118,13 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A367" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C367" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D367" s="1">
         <v>4599</v>
@@ -7076,13 +7135,13 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A368" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C368" t="s">
-        <v>28</v>
+        <v>212</v>
       </c>
       <c r="D368" s="1">
         <v>7814</v>
@@ -7093,7 +7152,7 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A369" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>38</v>
@@ -7110,7 +7169,7 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C370" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D370" s="4">
         <f>SUM(D366:D368)-D369</f>
@@ -7123,10 +7182,13 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A371" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
+      </c>
+      <c r="B371" t="s">
+        <v>120</v>
       </c>
       <c r="C371" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="D371" s="1">
         <v>17181036</v>
@@ -7137,10 +7199,10 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A372" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>11</v>
@@ -7154,13 +7216,13 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A373" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C373" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D373" s="1">
         <v>3352140</v>
@@ -7171,13 +7233,13 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A374" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C374" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D374" s="1">
         <v>2833722</v>
@@ -7188,13 +7250,13 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A375" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C375" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D375" s="1">
         <v>120285</v>
@@ -7205,13 +7267,13 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A376" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C376" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D376" s="1">
         <v>109823</v>
@@ -7222,13 +7284,13 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A377" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D377" s="1">
         <v>55471</v>
@@ -7239,13 +7301,13 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A378" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C378" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D378" s="1">
         <v>47307</v>
@@ -7256,13 +7318,13 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A379" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C379" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D379" s="1">
         <v>46194</v>
@@ -7273,10 +7335,10 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A380" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C380" t="s">
         <v>20</v>
@@ -7290,13 +7352,13 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A381" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C381" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D381" s="1">
         <v>20813</v>
@@ -7307,13 +7369,13 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A382" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C382" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D382" s="1">
         <v>17864</v>
@@ -7324,13 +7386,13 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A383" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C383" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D383" s="1">
         <v>15521</v>
@@ -7341,10 +7403,10 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A384" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>21</v>
@@ -7358,13 +7420,13 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A385" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C385" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D385" s="1">
         <v>13479</v>
@@ -7375,13 +7437,13 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A386" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C386" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D386" s="1">
         <v>6324</v>
@@ -7392,13 +7454,13 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A387" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C387" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D387" s="1">
         <v>6276</v>
@@ -7409,13 +7471,13 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A388" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C388" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D388" s="1">
         <v>5730</v>
@@ -7426,13 +7488,13 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A389" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C389" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D389" s="1">
         <v>5374</v>
@@ -7443,10 +7505,10 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A390" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C390" t="s">
         <v>28</v>
@@ -7460,10 +7522,10 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A391" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -7479,7 +7541,7 @@
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D392" s="4">
         <f>SUM(D372:D390)-D391</f>
@@ -7492,13 +7554,13 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A393" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D393" s="1">
         <v>1575335</v>
@@ -7509,10 +7571,10 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A394" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>61</v>
@@ -7526,10 +7588,10 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A395" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>52</v>
@@ -7543,13 +7605,13 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A396" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C396" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D396" s="1">
         <v>14963</v>
@@ -7560,13 +7622,13 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A397" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D397" s="1">
         <v>6738</v>
@@ -7577,13 +7639,13 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A398" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C398" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D398" s="1">
         <v>4926</v>
@@ -7594,10 +7656,10 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A399" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -7613,7 +7675,7 @@
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D400" s="4">
         <f>SUM(D393:D398)-D399</f>
@@ -7626,13 +7688,13 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A401" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B401" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D401" s="1">
         <v>12052</v>
@@ -7643,10 +7705,10 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A402" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B402" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C402" t="s">
         <v>28</v>
@@ -7660,10 +7722,10 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A403" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B403" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -7678,7 +7740,7 @@
     <row r="404" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A404" s="2"/>
       <c r="C404" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D404" s="4">
         <f>SUM(D401:D402)-D403</f>
@@ -7691,13 +7753,13 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A405" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D405" s="1">
         <v>9225</v>
@@ -7708,10 +7770,10 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A406" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -7727,20 +7789,24 @@
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D407" s="4"/>
-      <c r="E407" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="D407" s="4">
+        <v>0</v>
+      </c>
+      <c r="E407" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A408" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B408" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C408" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D408" s="1">
         <v>8981</v>
@@ -7751,10 +7817,10 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A409" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B409" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C409" t="s">
         <v>41</v>
@@ -7769,20 +7835,24 @@
     <row r="410" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A410" s="2"/>
       <c r="C410" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D410" s="4"/>
-      <c r="E410" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="D410" s="4">
+        <v>0</v>
+      </c>
+      <c r="E410" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A411" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C411" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D411" s="1">
         <v>5540</v>
@@ -7793,10 +7863,10 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A412" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>28</v>
@@ -7810,10 +7880,10 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A413" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>5</v>
@@ -7829,7 +7899,7 @@
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D414" s="4">
         <f>SUM(D411:D412)-D413</f>
@@ -7842,13 +7912,13 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A415" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C415" t="s">
-        <v>28</v>
+        <v>211</v>
       </c>
       <c r="D415" s="1">
         <v>3490</v>
@@ -7859,7 +7929,7 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A416" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>38</v>
@@ -7876,12 +7946,17 @@
     </row>
     <row r="417" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C417" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D417" s="4"/>
-      <c r="E417" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="D417" s="4">
+        <v>0</v>
+      </c>
+      <c r="E417" s="4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E417" xr:uid="{80A2B9E2-E278-2F43-A41A-3FCF4CEB6305}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/landings/cdfw/public/fish_bulletins/raw/fb95/raw/Tables21-27.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb95/raw/Tables21-27.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb95/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A4756D-C0C4-3E48-9620-1592CE9EE1CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54449014-E994-AB45-AE53-5ECEFCFB1E3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21940" yWindow="460" windowWidth="26560" windowHeight="24460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2540" yWindow="460" windowWidth="24140" windowHeight="24640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="213">
   <si>
     <t>Pacific halibut</t>
   </si>
@@ -1027,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
+      <selection activeCell="C417" sqref="C417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5220,6 +5220,9 @@
       <c r="B253" s="2" t="s">
         <v>197</v>
       </c>
+      <c r="C253" t="s">
+        <v>81</v>
+      </c>
       <c r="D253" s="1">
         <v>5724</v>
       </c>

--- a/data/landings/cdfw/public/fish_bulletins/raw/fb95/raw/Tables21-27.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb95/raw/Tables21-27.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb95/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE9239D-DD38-4649-A559-A6FC2C30653A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54449014-E994-AB45-AE53-5ECEFCFB1E3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24340" yWindow="460" windowWidth="26560" windowHeight="24460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2540" yWindow="460" windowWidth="24140" windowHeight="24640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$417</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="213">
   <si>
     <t>Pacific halibut</t>
   </si>
@@ -235,9 +238,6 @@
     <t>Pacific oyster</t>
   </si>
   <si>
-    <t>Monterey region total*</t>
-  </si>
-  <si>
     <t>Anchovy</t>
   </si>
   <si>
@@ -653,6 +653,15 @@
   </si>
   <si>
     <t>pounds</t>
+  </si>
+  <si>
+    <t>Monterey region total</t>
+  </si>
+  <si>
+    <t>All species</t>
+  </si>
+  <si>
+    <t>All other species</t>
   </si>
 </sst>
 </file>
@@ -1018,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E417"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
+      <selection activeCell="C417" sqref="C417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1033,27 +1042,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>188</v>
+        <v>173</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>3806175</v>
@@ -1064,10 +1076,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -1081,10 +1093,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -1093,15 +1105,15 @@
         <v>360764</v>
       </c>
       <c r="E4" s="1">
-        <v>2345069</v>
+        <v>2345669</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
@@ -1115,10 +1127,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -1132,13 +1144,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" s="1">
         <v>59234</v>
@@ -1149,13 +1161,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D8" s="1">
         <v>32437</v>
@@ -1166,10 +1178,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -1183,10 +1195,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -1200,13 +1212,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D11" s="1">
         <v>6824</v>
@@ -1217,10 +1229,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1234,10 +1246,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
@@ -1253,7 +1265,7 @@
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D14" s="4">
         <f>SUM(D3:D12)-D13</f>
@@ -1261,12 +1273,12 @@
       </c>
       <c r="E14" s="4">
         <f>SUM(E3:E12)-E13</f>
-        <v>-600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -1283,7 +1295,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -1300,7 +1312,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -1317,13 +1329,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D18" s="1">
         <v>26839</v>
@@ -1334,7 +1346,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -1351,13 +1363,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D20" s="1">
         <v>15263</v>
@@ -1368,7 +1380,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -1385,7 +1397,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -1403,7 +1415,7 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="C23" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D23" s="4">
         <f>SUM(D15:D21)-D22</f>
@@ -1416,10 +1428,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
@@ -1433,10 +1445,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C25" t="s">
         <v>24</v>
@@ -1450,10 +1462,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -1467,10 +1479,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -1484,16 +1496,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" s="1">
-        <v>2672</v>
+        <v>26720</v>
       </c>
       <c r="E28" s="1">
         <v>279494</v>
@@ -1501,10 +1513,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
@@ -1518,10 +1530,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
@@ -1535,10 +1547,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -1552,10 +1564,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1571,11 +1583,11 @@
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D33" s="4">
         <f>SUM(D24:D31)-D32</f>
-        <v>-24048</v>
+        <v>0</v>
       </c>
       <c r="E33" s="4">
         <f>SUM(E24:E31)-E32</f>
@@ -1584,7 +1596,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
@@ -1601,7 +1613,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
@@ -1618,7 +1630,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
@@ -1635,7 +1647,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B37" t="s">
         <v>33</v>
@@ -1652,7 +1664,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B38" t="s">
         <v>33</v>
@@ -1669,7 +1681,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B39" t="s">
         <v>33</v>
@@ -1687,7 +1699,7 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
       <c r="C40" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D40" s="4">
         <f>SUM(D34:D38)-D39</f>
@@ -1700,7 +1712,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B41" t="s">
         <v>35</v>
@@ -1717,7 +1729,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B42" t="s">
         <v>35</v>
@@ -1734,7 +1746,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B43" t="s">
         <v>35</v>
@@ -1751,7 +1763,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B44" t="s">
         <v>35</v>
@@ -1769,7 +1781,7 @@
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="C45" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D45" s="4">
         <f>SUM(D41:D43)-D44</f>
@@ -1782,13 +1794,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B46" t="s">
         <v>37</v>
       </c>
       <c r="C46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D46" s="1">
         <v>9588</v>
@@ -1799,7 +1811,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B47" t="s">
         <v>37</v>
@@ -1816,7 +1828,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B48" t="s">
         <v>37</v>
@@ -1834,7 +1846,7 @@
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
       <c r="C49" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D49" s="4">
         <f>SUM(D46:D47)-D48</f>
@@ -1847,13 +1859,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B50" t="s">
         <v>38</v>
       </c>
       <c r="C50" t="s">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="D50" s="1">
         <v>6610</v>
@@ -1864,7 +1876,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B51" t="s">
         <v>38</v>
@@ -1881,17 +1893,24 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C52" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>186</v>
+        <v>174</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
       </c>
       <c r="D53" s="1">
         <v>290832</v>
@@ -1902,10 +1921,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C54" t="s">
         <v>3</v>
@@ -1919,10 +1938,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
@@ -1936,10 +1955,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C56" t="s">
         <v>40</v>
@@ -1953,10 +1972,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C57" t="s">
         <v>39</v>
@@ -1970,16 +1989,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C58" t="s">
         <v>41</v>
       </c>
       <c r="D58" s="1">
-        <v>150740</v>
+        <v>156740</v>
       </c>
       <c r="E58" s="1">
         <v>1021081</v>
@@ -1989,11 +2008,11 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D59" s="4">
         <f>SUM(D54:D57)-D58</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="E59" s="4">
         <f>SUM(E54:E57)-E58</f>
@@ -2002,7 +2021,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B60" t="s">
         <v>42</v>
@@ -2019,7 +2038,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B61" t="s">
         <v>42</v>
@@ -2036,7 +2055,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B62" t="s">
         <v>42</v>
@@ -2053,7 +2072,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B63" t="s">
         <v>42</v>
@@ -2071,7 +2090,7 @@
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="2"/>
       <c r="C64" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D64" s="4">
         <f>SUM(D60:D62)-D63</f>
@@ -2084,7 +2103,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B65" t="s">
         <v>44</v>
@@ -2093,15 +2112,15 @@
         <v>3</v>
       </c>
       <c r="D65" s="1">
-        <v>22810</v>
+        <v>22840</v>
       </c>
       <c r="E65" s="1">
-        <v>10224</v>
+        <v>102240</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B66" t="s">
         <v>44</v>
@@ -2118,7 +2137,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B67" t="s">
         <v>44</v>
@@ -2135,7 +2154,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B68" t="s">
         <v>44</v>
@@ -2153,20 +2172,20 @@
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
       <c r="C69" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D69" s="4">
         <f>SUM(D65:D67)-D68</f>
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="E69" s="4">
         <f>SUM(E65:E67)-E68</f>
-        <v>-92016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B70" t="s">
         <v>45</v>
@@ -2183,13 +2202,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B71" t="s">
         <v>45</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D71" s="1">
         <v>7811</v>
@@ -2200,7 +2219,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B72" t="s">
         <v>45</v>
@@ -2217,7 +2236,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B73" t="s">
         <v>45</v>
@@ -2234,7 +2253,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B74" t="s">
         <v>45</v>
@@ -2251,7 +2270,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B75" t="s">
         <v>45</v>
@@ -2269,7 +2288,7 @@
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="2"/>
       <c r="C76" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D76" s="4">
         <f>SUM(D70:D74)-D75</f>
@@ -2282,10 +2301,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C77" t="s">
         <v>47</v>
@@ -2299,10 +2318,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2318,14 +2337,18 @@
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0</v>
+      </c>
+      <c r="E79" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B80" t="s">
         <v>48</v>
@@ -2342,7 +2365,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B81" t="s">
         <v>48</v>
@@ -2360,17 +2383,21 @@
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="2"/>
       <c r="C82" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>43</v>
@@ -2384,10 +2411,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2403,14 +2430,18 @@
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0</v>
+      </c>
+      <c r="E85" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B86" t="s">
         <v>49</v>
@@ -2427,7 +2458,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B87" t="s">
         <v>49</v>
@@ -2439,21 +2470,21 @@
         <v>2448</v>
       </c>
       <c r="E87" s="1">
-        <v>1096</v>
+        <v>10960</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B88" t="s">
         <v>49</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>28</v>
+        <v>212</v>
       </c>
       <c r="D88" s="1">
-        <v>204</v>
+        <v>2040</v>
       </c>
       <c r="E88" s="1">
         <v>8265</v>
@@ -2461,7 +2492,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B89" t="s">
         <v>49</v>
@@ -2478,23 +2509,26 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C90" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D90" s="4">
         <f>SUM(D86:D88)-D89</f>
-        <v>-1836</v>
+        <v>0</v>
       </c>
       <c r="E90" s="4">
         <f>SUM(E86:E88)-E89</f>
-        <v>-9864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="B91" t="s">
+        <v>148</v>
       </c>
       <c r="C91" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="D91" s="1">
         <v>3876140</v>
@@ -2505,7 +2539,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B92" t="s">
         <v>50</v>
@@ -2522,7 +2556,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B93" t="s">
         <v>50</v>
@@ -2539,7 +2573,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B94" t="s">
         <v>50</v>
@@ -2556,7 +2590,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B95" t="s">
         <v>50</v>
@@ -2573,13 +2607,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B96" t="s">
         <v>50</v>
       </c>
       <c r="C96" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D96" s="1">
         <v>124695</v>
@@ -2590,7 +2624,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B97" t="s">
         <v>50</v>
@@ -2607,7 +2641,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B98" t="s">
         <v>50</v>
@@ -2624,7 +2658,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B99" t="s">
         <v>50</v>
@@ -2641,7 +2675,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B100" t="s">
         <v>50</v>
@@ -2658,7 +2692,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B101" t="s">
         <v>50</v>
@@ -2675,7 +2709,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B102" t="s">
         <v>50</v>
@@ -2692,7 +2726,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B103" t="s">
         <v>50</v>
@@ -2701,7 +2735,7 @@
         <v>55</v>
       </c>
       <c r="D103" s="1">
-        <v>18081</v>
+        <v>18084</v>
       </c>
       <c r="E103" s="1">
         <v>47540</v>
@@ -2709,7 +2743,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B104" t="s">
         <v>50</v>
@@ -2726,7 +2760,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B105" t="s">
         <v>50</v>
@@ -2743,7 +2777,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B106" t="s">
         <v>50</v>
@@ -2760,7 +2794,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B107" t="s">
         <v>50</v>
@@ -2769,7 +2803,7 @@
         <v>28</v>
       </c>
       <c r="D107" s="1">
-        <v>4436</v>
+        <v>44360</v>
       </c>
       <c r="E107" s="1">
         <v>1044591</v>
@@ -2777,7 +2811,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B108" t="s">
         <v>50</v>
@@ -2795,11 +2829,11 @@
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="2"/>
       <c r="C109" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D109" s="4">
         <f>SUM(D92:D107)-D108</f>
-        <v>-39927</v>
+        <v>0</v>
       </c>
       <c r="E109" s="4">
         <f>SUM(E92:E107)-E108</f>
@@ -2808,10 +2842,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C110" t="s">
         <v>3</v>
@@ -2825,10 +2859,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C111" t="s">
         <v>25</v>
@@ -2842,10 +2876,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
@@ -2859,10 +2893,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C113" t="s">
         <v>54</v>
@@ -2876,10 +2910,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C114" t="s">
         <v>56</v>
@@ -2893,10 +2927,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C115" t="s">
         <v>0</v>
@@ -2910,10 +2944,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -2927,10 +2961,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C117" t="s">
         <v>58</v>
@@ -2946,7 +2980,7 @@
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D118" s="4">
         <f>SUM(D110:D116)-D117</f>
@@ -2959,13 +2993,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B119" t="s">
         <v>59</v>
       </c>
       <c r="C119" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D119" s="1">
         <v>119917</v>
@@ -2976,7 +3010,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B120" t="s">
         <v>59</v>
@@ -2993,13 +3027,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B121" t="s">
         <v>59</v>
       </c>
       <c r="C121" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D121" s="1">
         <v>71775</v>
@@ -3010,7 +3044,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B122" t="s">
         <v>59</v>
@@ -3027,7 +3061,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B123" t="s">
         <v>59</v>
@@ -3044,7 +3078,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B124" t="s">
         <v>59</v>
@@ -3061,7 +3095,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B125" t="s">
         <v>59</v>
@@ -3078,7 +3112,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B126" t="s">
         <v>59</v>
@@ -3095,7 +3129,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B127" t="s">
         <v>59</v>
@@ -3113,7 +3147,7 @@
     <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A128" s="2"/>
       <c r="C128" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D128" s="4">
         <f>SUM(D119:D126)-D127</f>
@@ -3126,10 +3160,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B129" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C129" t="s">
         <v>61</v>
@@ -3143,10 +3177,10 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B130" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C130" t="s">
         <v>25</v>
@@ -3160,10 +3194,10 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B131" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C131" t="s">
         <v>3</v>
@@ -3177,10 +3211,10 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B132" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C132" t="s">
         <v>41</v>
@@ -3195,7 +3229,7 @@
     <row r="133" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A133" s="2"/>
       <c r="C133" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D133" s="4">
         <f>SUM(D129:D131)-D132</f>
@@ -3208,10 +3242,10 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A134" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C134" t="s">
         <v>3</v>
@@ -3225,10 +3259,10 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A135" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C135" t="s">
         <v>62</v>
@@ -3242,10 +3276,10 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A136" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -3259,10 +3293,10 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C137" t="s">
         <v>41</v>
@@ -3278,7 +3312,7 @@
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D138" s="4">
         <f>SUM(D134:D136)-D137</f>
@@ -3291,7 +3325,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A139" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B139" t="s">
         <v>63</v>
@@ -3308,7 +3342,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B140" t="s">
         <v>63</v>
@@ -3325,7 +3359,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A141" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B141" t="s">
         <v>63</v>
@@ -3342,13 +3376,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A142" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B142" t="s">
         <v>63</v>
       </c>
       <c r="C142" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D142" s="1">
         <v>5319</v>
@@ -3359,7 +3393,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B143" t="s">
         <v>63</v>
@@ -3376,7 +3410,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A144" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B144" t="s">
         <v>63</v>
@@ -3394,7 +3428,7 @@
     <row r="145" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A145" s="2"/>
       <c r="C145" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D145" s="4">
         <f>SUM(D139:D143)-D144</f>
@@ -3407,7 +3441,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A146" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B146" t="s">
         <v>8</v>
@@ -3424,7 +3458,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B147" t="s">
         <v>8</v>
@@ -3441,7 +3475,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B148" t="s">
         <v>8</v>
@@ -3459,7 +3493,7 @@
     <row r="149" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A149" s="2"/>
       <c r="C149" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D149" s="4">
         <f>SUM(D146:D147)-D148</f>
@@ -3472,7 +3506,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A150" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B150" t="s">
         <v>69</v>
@@ -3489,7 +3523,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B151" t="s">
         <v>69</v>
@@ -3506,7 +3540,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A152" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B152" t="s">
         <v>69</v>
@@ -3523,7 +3557,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A153" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B153" t="s">
         <v>69</v>
@@ -3541,7 +3575,7 @@
     <row r="154" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A154" s="2"/>
       <c r="C154" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D154" s="4">
         <f>SUM(D150:D152)-D153</f>
@@ -3554,13 +3588,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A155" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B155" t="s">
         <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D155" s="1">
         <v>6115</v>
@@ -3571,7 +3605,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B156" t="s">
         <v>9</v>
@@ -3588,7 +3622,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B157" t="s">
         <v>9</v>
@@ -3606,7 +3640,7 @@
     <row r="158" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A158" s="2"/>
       <c r="C158" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D158" s="4">
         <f>SUM(D155:D156)-D157</f>
@@ -3619,7 +3653,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B159" t="s">
         <v>10</v>
@@ -3628,7 +3662,7 @@
         <v>25</v>
       </c>
       <c r="D159" s="1">
-        <v>10070</v>
+        <v>10076</v>
       </c>
       <c r="E159" s="1">
         <v>72749</v>
@@ -3636,7 +3670,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A160" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B160" t="s">
         <v>10</v>
@@ -3653,13 +3687,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A161" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B161" t="s">
         <v>10</v>
       </c>
       <c r="C161" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D161" s="1">
         <v>10825</v>
@@ -3671,11 +3705,11 @@
     <row r="162" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A162" s="2"/>
       <c r="C162" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D162" s="4">
         <f>SUM(D159:D160)-D161</f>
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="E162" s="4">
         <f>SUM(E159:E160)-E161</f>
@@ -3684,13 +3718,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A163" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C163" t="s">
-        <v>28</v>
+        <v>211</v>
       </c>
       <c r="D163" s="1">
         <v>8815</v>
@@ -3701,7 +3735,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A164" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>38</v>
@@ -3718,17 +3752,24 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C165" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D165" s="4"/>
-      <c r="E165" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="D165" s="4">
+        <v>0</v>
+      </c>
+      <c r="E165" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A166" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="B166" t="s">
+        <v>210</v>
       </c>
       <c r="C166" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="D166" s="1">
         <v>2860297</v>
@@ -3739,13 +3780,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A167" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B167" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C167" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D167" s="1">
         <v>784776</v>
@@ -3756,10 +3797,10 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B168" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C168" t="s">
         <v>51</v>
@@ -3773,10 +3814,10 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A169" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B169" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C169" t="s">
         <v>11</v>
@@ -3790,13 +3831,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A170" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B170" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C170" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D170" s="1">
         <v>162747</v>
@@ -3807,16 +3848,16 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A171" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B171" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C171" t="s">
         <v>54</v>
       </c>
       <c r="D171" s="1">
-        <v>155461</v>
+        <v>155464</v>
       </c>
       <c r="E171" s="1">
         <v>2573901</v>
@@ -3824,10 +3865,10 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A172" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B172" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C172" t="s">
         <v>3</v>
@@ -3841,13 +3882,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A173" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C173" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D173" s="1">
         <v>15805</v>
@@ -3858,13 +3899,13 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C174" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D174" s="1">
         <v>15284</v>
@@ -3875,10 +3916,10 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A175" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B175" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C175" t="s">
         <v>12</v>
@@ -3892,10 +3933,10 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C176" t="s">
         <v>1</v>
@@ -3909,13 +3950,13 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A177" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C177" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D177" s="1">
         <v>10617</v>
@@ -3926,13 +3967,13 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C178" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D178" s="1">
         <v>10360</v>
@@ -3943,10 +3984,10 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A179" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B179" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C179" t="s">
         <v>13</v>
@@ -3960,13 +4001,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A180" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B180" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C180" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D180" s="1">
         <v>7200</v>
@@ -3977,10 +4018,10 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A181" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B181" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C181" t="s">
         <v>56</v>
@@ -3994,10 +4035,10 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A182" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B182" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C182" t="s">
         <v>39</v>
@@ -4011,10 +4052,10 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A183" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B183" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C183" t="s">
         <v>41</v>
@@ -4029,11 +4070,11 @@
     <row r="184" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A184" s="2"/>
       <c r="C184" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D184" s="4">
         <f>SUM(D167:D182)-D183</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E184" s="4">
         <f>SUM(E167:E182)-E183</f>
@@ -4042,10 +4083,10 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A185" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C185" t="s">
         <v>51</v>
@@ -4059,13 +4100,13 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A186" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C186" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D186" s="1">
         <v>143635</v>
@@ -4076,10 +4117,10 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A187" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C187" t="s">
         <v>3</v>
@@ -4093,16 +4134,16 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A188" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D188" s="1">
-        <v>494</v>
+        <v>49400</v>
       </c>
       <c r="E188" s="1">
         <v>2352405</v>
@@ -4110,10 +4151,10 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A189" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C189" t="s">
         <v>12</v>
@@ -4127,10 +4168,10 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A190" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C190" t="s">
         <v>34</v>
@@ -4144,10 +4185,10 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A191" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -4161,10 +4202,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A192" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -4180,11 +4221,11 @@
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D193" s="4">
         <f>SUM(D185:D191)-D192</f>
-        <v>-48906</v>
+        <v>0</v>
       </c>
       <c r="E193" s="4">
         <f>SUM(E185:E191)-E192</f>
@@ -4193,10 +4234,10 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A194" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C194" t="s">
         <v>26</v>
@@ -4210,13 +4251,13 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A195" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C195" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D195" s="1">
         <v>67350</v>
@@ -4227,10 +4268,10 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A196" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C196" t="s">
         <v>34</v>
@@ -4244,10 +4285,10 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A197" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C197" t="s">
         <v>61</v>
@@ -4261,10 +4302,10 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C198" t="s">
         <v>6</v>
@@ -4278,13 +4319,13 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A199" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C199" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D199" s="1">
         <v>9567</v>
@@ -4295,13 +4336,13 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A200" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C200" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D200" s="1">
         <v>7564</v>
@@ -4312,13 +4353,13 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A201" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C201" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D201" s="1">
         <v>6589</v>
@@ -4329,10 +4370,10 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A202" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -4346,10 +4387,10 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A203" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -4363,7 +4404,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C204" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D204" s="4">
         <f>SUM(D194:D202)-D203</f>
@@ -4376,10 +4417,13 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A205" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>193</v>
+        <v>177</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C205" t="s">
+        <v>5</v>
       </c>
       <c r="D205" s="1">
         <v>1435196</v>
@@ -4390,13 +4434,13 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A206" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D206" s="1">
         <v>128453</v>
@@ -4407,10 +4451,10 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A207" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C207" t="s">
         <v>20</v>
@@ -4424,10 +4468,10 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A208" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C208" t="s">
         <v>23</v>
@@ -4441,10 +4485,10 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A209" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C209" t="s">
         <v>1</v>
@@ -4458,13 +4502,13 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A210" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C210" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D210" s="1">
         <v>36552</v>
@@ -4475,10 +4519,10 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A211" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C211" t="s">
         <v>14</v>
@@ -4492,13 +4536,13 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A212" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C212" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D212" s="1">
         <v>19258</v>
@@ -4509,10 +4553,10 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A213" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C213" t="s">
         <v>17</v>
@@ -4526,13 +4570,13 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A214" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C214" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D214" s="1">
         <v>11056</v>
@@ -4543,10 +4587,10 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A215" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C215" t="s">
         <v>21</v>
@@ -4560,10 +4604,10 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A216" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C216" t="s">
         <v>54</v>
@@ -4577,10 +4621,10 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A217" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C217" t="s">
         <v>25</v>
@@ -4594,13 +4638,13 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A218" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C218" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D218" s="1">
         <v>5086</v>
@@ -4611,10 +4655,10 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A219" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -4628,10 +4672,10 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A220" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4647,7 +4691,7 @@
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D221" s="4">
         <f>SUM(D206:D219)-D220</f>
@@ -4660,10 +4704,10 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A222" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>51</v>
@@ -4677,13 +4721,13 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A223" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C223" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D223" s="1">
         <v>23518</v>
@@ -4694,13 +4738,13 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A224" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C224" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D224" s="1">
         <v>23278</v>
@@ -4711,10 +4755,10 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A225" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C225" t="s">
         <v>25</v>
@@ -4728,10 +4772,10 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A226" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C226" t="s">
         <v>54</v>
@@ -4745,10 +4789,10 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A227" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -4762,10 +4806,10 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A228" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4781,7 +4825,7 @@
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D229" s="4">
         <f>SUM(D222:D227)-D228</f>
@@ -4794,13 +4838,13 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A230" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B230" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C230" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D230" s="1">
         <v>142472</v>
@@ -4811,13 +4855,13 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A231" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B231" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C231" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D231" s="1">
         <v>92762</v>
@@ -4828,13 +4872,13 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A232" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B232" t="s">
+        <v>83</v>
+      </c>
+      <c r="C232" t="s">
         <v>84</v>
-      </c>
-      <c r="C232" t="s">
-        <v>85</v>
       </c>
       <c r="D232" s="1">
         <v>23411</v>
@@ -4845,13 +4889,13 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A233" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B233" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C233" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D233" s="1">
         <v>10955</v>
@@ -4862,13 +4906,13 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A234" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B234" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C234" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D234" s="1">
         <v>6502</v>
@@ -4879,10 +4923,10 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A235" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B235" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C235" t="s">
         <v>14</v>
@@ -4896,10 +4940,10 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A236" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B236" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C236" t="s">
         <v>39</v>
@@ -4913,10 +4957,10 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A237" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B237" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4931,7 +4975,7 @@
     <row r="238" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A238" s="2"/>
       <c r="C238" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D238" s="4">
         <f>SUM(D230:D236)-D237</f>
@@ -4944,10 +4988,10 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A239" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>51</v>
@@ -4961,10 +5005,10 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A240" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C240" t="s">
         <v>34</v>
@@ -4978,13 +5022,13 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A241" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C241" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D241" s="1">
         <v>12517</v>
@@ -4995,13 +5039,13 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A242" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C242" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D242" s="1">
         <v>9705</v>
@@ -5012,10 +5056,10 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A243" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C243" t="s">
         <v>14</v>
@@ -5029,10 +5073,10 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A244" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -5046,10 +5090,10 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A245" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C245" t="s">
         <v>41</v>
@@ -5065,7 +5109,7 @@
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D246" s="4">
         <f>SUM(D239:D244)-D245</f>
@@ -5078,13 +5122,13 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A247" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C247" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D247" s="1">
         <v>72948</v>
@@ -5095,10 +5139,10 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A248" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -5114,20 +5158,24 @@
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D249" s="4"/>
-      <c r="E249" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="D249" s="4">
+        <v>0</v>
+      </c>
+      <c r="E249" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A250" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B250" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C250" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D250" s="1">
         <v>26508</v>
@@ -5138,10 +5186,10 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A251" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B251" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5156,17 +5204,24 @@
     <row r="252" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A252" s="2"/>
       <c r="C252" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D252" s="4"/>
-      <c r="E252" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="D252" s="4">
+        <v>0</v>
+      </c>
+      <c r="E252" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A253" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="C253" t="s">
+        <v>81</v>
       </c>
       <c r="D253" s="1">
         <v>5724</v>
@@ -5177,10 +5232,10 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A254" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -5194,10 +5249,10 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A255" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -5213,7 +5268,7 @@
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D256" s="4">
         <f>SUM(D253:D254)-D255</f>
@@ -5226,13 +5281,13 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A257" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C257" t="s">
-        <v>28</v>
+        <v>211</v>
       </c>
       <c r="D257" s="1">
         <v>4313</v>
@@ -5243,7 +5298,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A258" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>38</v>
@@ -5260,17 +5315,24 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C259" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D259" s="4"/>
-      <c r="E259" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="D259" s="4">
+        <v>0</v>
+      </c>
+      <c r="E259" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A260" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>208</v>
+        <v>178</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C260" t="s">
+        <v>5</v>
       </c>
       <c r="D260" s="1">
         <v>42533092</v>
@@ -5281,13 +5343,13 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A261" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C261" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D261" s="1">
         <v>19270510</v>
@@ -5298,13 +5360,13 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A262" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C262" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D262" s="1">
         <v>6780114</v>
@@ -5315,13 +5377,13 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A263" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D263" s="1">
         <v>4731089</v>
@@ -5332,13 +5394,13 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A264" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C264" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D264" s="1">
         <v>3293324</v>
@@ -5349,13 +5411,13 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A265" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C265" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D265" s="1">
         <v>615224</v>
@@ -5366,13 +5428,13 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A266" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C266" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D266" s="1">
         <v>553563</v>
@@ -5383,13 +5445,13 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A267" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C267" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D267" s="1">
         <v>511378</v>
@@ -5400,13 +5462,13 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A268" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C268" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D268" s="1">
         <v>219856</v>
@@ -5417,13 +5479,13 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A269" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C269" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D269" s="1">
         <v>168731</v>
@@ -5434,13 +5496,13 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A270" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C270" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D270" s="1">
         <v>2658</v>
@@ -5451,10 +5513,10 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A271" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5470,7 +5532,7 @@
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D272" s="4">
         <f>SUM(D261:D270)-D271</f>
@@ -5483,10 +5545,10 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A273" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C273" t="s">
         <v>11</v>
@@ -5500,13 +5562,13 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A274" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C274" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D274" s="1">
         <v>574950</v>
@@ -5517,13 +5579,13 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A275" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C275" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D275" s="1">
         <v>279789</v>
@@ -5534,10 +5596,10 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A276" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C276" t="s">
         <v>52</v>
@@ -5551,13 +5613,13 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A277" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C277" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D277" s="1">
         <v>105701</v>
@@ -5568,10 +5630,10 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A278" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C278" t="s">
         <v>13</v>
@@ -5585,13 +5647,13 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A279" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C279" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D279" s="1">
         <v>52462</v>
@@ -5602,13 +5664,13 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A280" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C280" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D280" s="1">
         <v>44810</v>
@@ -5619,13 +5681,13 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A281" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C281" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D281" s="1">
         <v>34180</v>
@@ -5636,10 +5698,10 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A282" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C282" t="s">
         <v>23</v>
@@ -5653,13 +5715,13 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A283" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C283" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D283" s="1">
         <v>19058</v>
@@ -5670,13 +5732,13 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A284" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C284" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D284" s="1">
         <v>9031</v>
@@ -5687,13 +5749,13 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A285" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C285" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D285" s="1">
         <v>8853</v>
@@ -5704,13 +5766,13 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A286" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C286" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D286" s="1">
         <v>5946</v>
@@ -5721,10 +5783,10 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A287" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C287" t="s">
         <v>39</v>
@@ -5738,10 +5800,10 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A288" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5757,7 +5819,7 @@
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D289" s="4">
         <f>SUM(D273:D287)-D288</f>
@@ -5770,13 +5832,13 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A290" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B290" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C290" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D290" s="1">
         <v>533447</v>
@@ -5787,10 +5849,10 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A291" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B291" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C291" t="s">
         <v>11</v>
@@ -5804,13 +5866,13 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A292" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B292" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C292" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D292" s="1">
         <v>137765</v>
@@ -5821,10 +5883,10 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A293" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B293" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C293" t="s">
         <v>13</v>
@@ -5838,13 +5900,13 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A294" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B294" t="s">
+        <v>99</v>
+      </c>
+      <c r="C294" t="s">
         <v>100</v>
-      </c>
-      <c r="C294" t="s">
-        <v>101</v>
       </c>
       <c r="D294" s="1">
         <v>69705</v>
@@ -5855,10 +5917,10 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A295" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B295" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C295" t="s">
         <v>12</v>
@@ -5872,10 +5934,10 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A296" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B296" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C296" t="s">
         <v>23</v>
@@ -5889,13 +5951,13 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A297" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B297" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C297" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D297" s="1">
         <v>36107</v>
@@ -5906,13 +5968,13 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A298" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B298" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C298" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D298" s="1">
         <v>8565</v>
@@ -5923,13 +5985,13 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A299" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B299" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C299" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D299" s="1">
         <v>6750</v>
@@ -5940,10 +6002,10 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A300" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B300" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -5957,13 +6019,13 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A301" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B301" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C301" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D301" s="1">
         <v>1432203</v>
@@ -5975,7 +6037,7 @@
     <row r="302" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A302" s="2"/>
       <c r="C302" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D302" s="4">
         <f>SUM(D290:D300)-D301</f>
@@ -5988,10 +6050,10 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A303" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C303" t="s">
         <v>15</v>
@@ -6005,13 +6067,13 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A304" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C304" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D304" s="1">
         <v>161292</v>
@@ -6022,13 +6084,13 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A305" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C305" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D305" s="1">
         <v>149290</v>
@@ -6039,13 +6101,13 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A306" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C306" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D306" s="1">
         <v>102443</v>
@@ -6056,13 +6118,13 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A307" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C307" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D307" s="1">
         <v>77510</v>
@@ -6073,13 +6135,13 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A308" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C308" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D308" s="1">
         <v>76477</v>
@@ -6090,13 +6152,13 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A309" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C309" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D309" s="1">
         <v>48612</v>
@@ -6107,13 +6169,13 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A310" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C310" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D310" s="1">
         <v>47325</v>
@@ -6124,13 +6186,13 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A311" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C311" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D311" s="1">
         <v>46556</v>
@@ -6141,10 +6203,10 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A312" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C312" t="s">
         <v>14</v>
@@ -6158,13 +6220,13 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A313" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C313" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D313" s="1">
         <v>42534</v>
@@ -6175,13 +6237,13 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A314" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C314" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D314" s="1">
         <v>33827</v>
@@ -6192,10 +6254,10 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A315" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C315" t="s">
         <v>16</v>
@@ -6209,10 +6271,10 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A316" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C316" t="s">
         <v>17</v>
@@ -6226,10 +6288,10 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A317" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C317" t="s">
         <v>13</v>
@@ -6243,13 +6305,13 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A318" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C318" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D318" s="1">
         <v>18430</v>
@@ -6260,13 +6322,13 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A319" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C319" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D319" s="1">
         <v>16374</v>
@@ -6277,13 +6339,13 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A320" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C320" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D320" s="1">
         <v>14717</v>
@@ -6294,13 +6356,13 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A321" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C321" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D321" s="1">
         <v>12201</v>
@@ -6311,13 +6373,13 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A322" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C322" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D322" s="1">
         <v>10277</v>
@@ -6328,13 +6390,13 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A323" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C323" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D323" s="1">
         <v>8292</v>
@@ -6345,10 +6407,10 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A324" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C324" t="s">
         <v>18</v>
@@ -6362,10 +6424,10 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A325" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -6379,10 +6441,10 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A326" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -6398,7 +6460,7 @@
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D327" s="4">
         <f>SUM(D303:D325)-D326</f>
@@ -6411,7 +6473,7 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A328" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B328" t="s">
         <v>19</v>
@@ -6428,13 +6490,13 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A329" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B329" t="s">
         <v>19</v>
       </c>
       <c r="C329" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D329" s="1">
         <v>177490</v>
@@ -6445,7 +6507,7 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A330" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B330" t="s">
         <v>19</v>
@@ -6462,13 +6524,13 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A331" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B331" t="s">
         <v>19</v>
       </c>
       <c r="C331" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D331" s="1">
         <v>22428</v>
@@ -6479,7 +6541,7 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A332" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B332" t="s">
         <v>19</v>
@@ -6496,13 +6558,13 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A333" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B333" t="s">
         <v>19</v>
       </c>
       <c r="C333" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D333" s="1">
         <v>15630</v>
@@ -6513,13 +6575,13 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A334" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B334" t="s">
         <v>19</v>
       </c>
       <c r="C334" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D334" s="1">
         <v>14785</v>
@@ -6530,13 +6592,13 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A335" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B335" t="s">
         <v>19</v>
       </c>
       <c r="C335" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D335" s="1">
         <v>10285</v>
@@ -6547,13 +6609,13 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A336" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B336" t="s">
         <v>19</v>
       </c>
       <c r="C336" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D336" s="1">
         <v>8511</v>
@@ -6564,13 +6626,13 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A337" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B337" t="s">
         <v>19</v>
       </c>
       <c r="C337" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D337" s="1">
         <v>6294</v>
@@ -6581,7 +6643,7 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A338" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B338" t="s">
         <v>19</v>
@@ -6598,7 +6660,7 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A339" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B339" t="s">
         <v>19</v>
@@ -6615,7 +6677,7 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A340" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B340" t="s">
         <v>19</v>
@@ -6633,7 +6695,7 @@
     <row r="341" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A341" s="2"/>
       <c r="C341" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D341" s="4">
         <f>SUM(D328:D339)-D340</f>
@@ -6646,10 +6708,10 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A342" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B342" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C342" t="s">
         <v>36</v>
@@ -6663,10 +6725,10 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A343" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B343" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C343" t="s">
         <v>0</v>
@@ -6680,10 +6742,10 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A344" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B344" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C344" t="s">
         <v>6</v>
@@ -6697,13 +6759,13 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A345" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B345" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C345" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D345" s="1">
         <v>49249</v>
@@ -6714,10 +6776,10 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A346" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B346" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -6732,7 +6794,7 @@
     <row r="347" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A347" s="2"/>
       <c r="C347" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D347" s="4">
         <f>SUM(D342:D345)-D346</f>
@@ -6745,10 +6807,10 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A348" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B348" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C348" t="s">
         <v>22</v>
@@ -6762,13 +6824,13 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A349" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B349" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C349" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D349" s="1">
         <v>34276</v>
@@ -6779,13 +6841,13 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A350" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B350" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C350" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D350" s="1">
         <v>9681</v>
@@ -6796,13 +6858,13 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A351" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B351" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C351" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D351" s="1">
         <v>6340</v>
@@ -6813,10 +6875,10 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A352" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B352" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C352" t="s">
         <v>23</v>
@@ -6830,13 +6892,13 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A353" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B353" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C353" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D353" s="1">
         <v>4422</v>
@@ -6847,10 +6909,10 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A354" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B354" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
@@ -6864,10 +6926,10 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A355" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B355" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -6882,7 +6944,7 @@
     <row r="356" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A356" s="2"/>
       <c r="C356" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D356" s="4">
         <f>SUM(D348:D354)-D355</f>
@@ -6895,10 +6957,10 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A357" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B357" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C357" t="s">
         <v>20</v>
@@ -6912,10 +6974,10 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A358" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B358" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C358" t="s">
         <v>28</v>
@@ -6929,10 +6991,10 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A359" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B359" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -6947,7 +7009,7 @@
     <row r="360" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A360" s="2"/>
       <c r="C360" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D360" s="4">
         <f>SUM(D357:D358)-D359</f>
@@ -6960,13 +7022,13 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A361" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B361" t="s">
+        <v>163</v>
+      </c>
+      <c r="C361" t="s">
         <v>164</v>
-      </c>
-      <c r="C361" t="s">
-        <v>165</v>
       </c>
       <c r="D361" s="1">
         <v>3609</v>
@@ -6977,13 +7039,13 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A362" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B362" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C362" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D362" s="1">
         <v>1368</v>
@@ -6994,10 +7056,10 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A363" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B363" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -7011,10 +7073,10 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A364" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B364" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -7029,7 +7091,7 @@
     <row r="365" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A365" s="2"/>
       <c r="C365" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D365" s="4">
         <f>SUM(D361:D363)-D364</f>
@@ -7042,13 +7104,13 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A366" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C366" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D366" s="1">
         <v>812902</v>
@@ -7059,13 +7121,13 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A367" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C367" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D367" s="1">
         <v>4599</v>
@@ -7076,13 +7138,13 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A368" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C368" t="s">
-        <v>28</v>
+        <v>212</v>
       </c>
       <c r="D368" s="1">
         <v>7814</v>
@@ -7093,7 +7155,7 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A369" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>38</v>
@@ -7110,7 +7172,7 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C370" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D370" s="4">
         <f>SUM(D366:D368)-D369</f>
@@ -7123,10 +7185,13 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A371" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
+      </c>
+      <c r="B371" t="s">
+        <v>120</v>
       </c>
       <c r="C371" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="D371" s="1">
         <v>17181036</v>
@@ -7137,10 +7202,10 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A372" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>11</v>
@@ -7154,13 +7219,13 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A373" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C373" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D373" s="1">
         <v>3352140</v>
@@ -7171,13 +7236,13 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A374" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C374" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D374" s="1">
         <v>2833722</v>
@@ -7188,13 +7253,13 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A375" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C375" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D375" s="1">
         <v>120285</v>
@@ -7205,13 +7270,13 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A376" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C376" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D376" s="1">
         <v>109823</v>
@@ -7222,13 +7287,13 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A377" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D377" s="1">
         <v>55471</v>
@@ -7239,13 +7304,13 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A378" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C378" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D378" s="1">
         <v>47307</v>
@@ -7256,13 +7321,13 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A379" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C379" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D379" s="1">
         <v>46194</v>
@@ -7273,10 +7338,10 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A380" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C380" t="s">
         <v>20</v>
@@ -7290,13 +7355,13 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A381" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C381" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D381" s="1">
         <v>20813</v>
@@ -7307,13 +7372,13 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A382" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C382" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D382" s="1">
         <v>17864</v>
@@ -7324,13 +7389,13 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A383" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C383" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D383" s="1">
         <v>15521</v>
@@ -7341,10 +7406,10 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A384" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>21</v>
@@ -7358,13 +7423,13 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A385" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C385" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D385" s="1">
         <v>13479</v>
@@ -7375,13 +7440,13 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A386" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C386" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D386" s="1">
         <v>6324</v>
@@ -7392,13 +7457,13 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A387" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C387" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D387" s="1">
         <v>6276</v>
@@ -7409,13 +7474,13 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A388" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C388" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D388" s="1">
         <v>5730</v>
@@ -7426,13 +7491,13 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A389" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C389" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D389" s="1">
         <v>5374</v>
@@ -7443,10 +7508,10 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A390" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C390" t="s">
         <v>28</v>
@@ -7460,10 +7525,10 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A391" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -7479,7 +7544,7 @@
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D392" s="4">
         <f>SUM(D372:D390)-D391</f>
@@ -7492,13 +7557,13 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A393" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D393" s="1">
         <v>1575335</v>
@@ -7509,10 +7574,10 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A394" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>61</v>
@@ -7526,10 +7591,10 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A395" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>52</v>
@@ -7543,13 +7608,13 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A396" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C396" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D396" s="1">
         <v>14963</v>
@@ -7560,13 +7625,13 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A397" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D397" s="1">
         <v>6738</v>
@@ -7577,13 +7642,13 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A398" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C398" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D398" s="1">
         <v>4926</v>
@@ -7594,10 +7659,10 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A399" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -7613,7 +7678,7 @@
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D400" s="4">
         <f>SUM(D393:D398)-D399</f>
@@ -7626,13 +7691,13 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A401" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B401" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D401" s="1">
         <v>12052</v>
@@ -7643,10 +7708,10 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A402" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B402" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C402" t="s">
         <v>28</v>
@@ -7660,10 +7725,10 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A403" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B403" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -7678,7 +7743,7 @@
     <row r="404" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A404" s="2"/>
       <c r="C404" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D404" s="4">
         <f>SUM(D401:D402)-D403</f>
@@ -7691,13 +7756,13 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A405" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D405" s="1">
         <v>9225</v>
@@ -7708,10 +7773,10 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A406" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -7727,20 +7792,24 @@
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D407" s="4"/>
-      <c r="E407" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="D407" s="4">
+        <v>0</v>
+      </c>
+      <c r="E407" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A408" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B408" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C408" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D408" s="1">
         <v>8981</v>
@@ -7751,10 +7820,10 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A409" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B409" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C409" t="s">
         <v>41</v>
@@ -7769,20 +7838,24 @@
     <row r="410" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A410" s="2"/>
       <c r="C410" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D410" s="4"/>
-      <c r="E410" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="D410" s="4">
+        <v>0</v>
+      </c>
+      <c r="E410" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A411" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C411" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D411" s="1">
         <v>5540</v>
@@ -7793,10 +7866,10 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A412" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>28</v>
@@ -7810,10 +7883,10 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A413" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>5</v>
@@ -7829,7 +7902,7 @@
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D414" s="4">
         <f>SUM(D411:D412)-D413</f>
@@ -7842,13 +7915,13 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A415" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C415" t="s">
-        <v>28</v>
+        <v>211</v>
       </c>
       <c r="D415" s="1">
         <v>3490</v>
@@ -7859,7 +7932,7 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A416" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>38</v>
@@ -7876,12 +7949,17 @@
     </row>
     <row r="417" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C417" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D417" s="4"/>
-      <c r="E417" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="D417" s="4">
+        <v>0</v>
+      </c>
+      <c r="E417" s="4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E417" xr:uid="{80A2B9E2-E278-2F43-A41A-3FCF4CEB6305}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/landings/cdfw/public/fish_bulletins/raw/fb95/raw/Tables21-27.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb95/raw/Tables21-27.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb95/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54449014-E994-AB45-AE53-5ECEFCFB1E3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72B79A2-9377-5E4A-A3E8-5CDADAD33484}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="460" windowWidth="24140" windowHeight="24640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25580" yWindow="1720" windowWidth="24140" windowHeight="24640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="208">
   <si>
     <t>Pacific halibut</t>
   </si>
@@ -70,12 +70,6 @@
     <t>California halibut</t>
   </si>
   <si>
-    <t>H«rrtw*nrl*i</t>
-  </si>
-  <si>
-    <t>Kockfish</t>
-  </si>
-  <si>
     <t>Swordfish</t>
   </si>
   <si>
@@ -343,12 +337,6 @@
     <t>Cabrilla</t>
   </si>
   <si>
-    <t>Ahnlone</t>
-  </si>
-  <si>
-    <t>Albacoro</t>
-  </si>
-  <si>
     <t>Spiny lolwter</t>
   </si>
   <si>
@@ -440,9 +428,6 @@
   </si>
   <si>
     <t xml:space="preserve">Yellowtail </t>
-  </si>
-  <si>
-    <t>Kinafish</t>
   </si>
   <si>
     <t>Salton Sea</t>
@@ -1027,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
-      <selection activeCell="C417" sqref="C417"/>
+    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
+      <selection activeCell="C322" sqref="C322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1042,27 +1027,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1076,10 +1061,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -1093,13 +1078,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1">
         <v>360764</v>
@@ -1110,13 +1095,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1">
         <v>322172</v>
@@ -1127,13 +1112,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1">
         <v>126458</v>
@@ -1144,13 +1129,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D7" s="1">
         <v>59234</v>
@@ -1161,13 +1146,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D8" s="1">
         <v>32437</v>
@@ -1178,13 +1163,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1">
         <v>16624</v>
@@ -1195,10 +1180,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -1212,13 +1197,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C11" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D11" s="1">
         <v>6824</v>
@@ -1229,13 +1214,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1">
         <v>17246</v>
@@ -1246,13 +1231,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1">
         <v>1714112</v>
@@ -1265,7 +1250,7 @@
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D14" s="4">
         <f>SUM(D3:D12)-D13</f>
@@ -1278,13 +1263,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1">
         <v>692126</v>
@@ -1295,13 +1280,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16" s="1">
         <v>210705</v>
@@ -1312,10 +1297,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -1329,13 +1314,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D18" s="1">
         <v>26839</v>
@@ -1346,13 +1331,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" s="1">
         <v>19893</v>
@@ -1363,13 +1348,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D20" s="1">
         <v>15263</v>
@@ -1380,13 +1365,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D21" s="1">
         <v>13842</v>
@@ -1397,10 +1382,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1415,7 +1400,7 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="C23" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D23" s="4">
         <f>SUM(D15:D21)-D22</f>
@@ -1428,13 +1413,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D24" s="1">
         <v>246094</v>
@@ -1445,13 +1430,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D25" s="1">
         <v>118572</v>
@@ -1462,10 +1447,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -1479,10 +1464,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -1496,13 +1481,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C28" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D28" s="1">
         <v>26720</v>
@@ -1513,13 +1498,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D29" s="1">
         <v>13983</v>
@@ -1530,13 +1515,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D30" s="1">
         <v>5623</v>
@@ -1547,13 +1532,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D31" s="1">
         <v>7768</v>
@@ -1564,10 +1549,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1583,7 +1568,7 @@
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D33" s="4">
         <f>SUM(D24:D31)-D32</f>
@@ -1596,13 +1581,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D34" s="1">
         <v>124541</v>
@@ -1613,13 +1598,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D35" s="1">
         <v>64306</v>
@@ -1630,13 +1615,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D36" s="1">
         <v>25263</v>
@@ -1647,10 +1632,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -1664,13 +1649,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D38" s="1">
         <v>8076</v>
@@ -1681,10 +1666,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1699,7 +1684,7 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
       <c r="C40" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D40" s="4">
         <f>SUM(D34:D38)-D39</f>
@@ -1712,13 +1697,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D41" s="1">
         <v>189771</v>
@@ -1729,13 +1714,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D42" s="1">
         <v>3779</v>
@@ -1746,13 +1731,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D43" s="1">
         <v>69</v>
@@ -1763,10 +1748,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1781,7 +1766,7 @@
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="C45" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D45" s="4">
         <f>SUM(D41:D43)-D44</f>
@@ -1794,13 +1779,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D46" s="1">
         <v>9588</v>
@@ -1811,13 +1796,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D47" s="1">
         <v>825</v>
@@ -1828,10 +1813,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1846,7 +1831,7 @@
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
       <c r="C49" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D49" s="4">
         <f>SUM(D46:D47)-D48</f>
@@ -1859,13 +1844,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C50" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D50" s="1">
         <v>6610</v>
@@ -1876,10 +1861,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1893,7 +1878,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C52" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D52" s="4">
         <v>0</v>
@@ -1904,10 +1889,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1921,10 +1906,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C54" t="s">
         <v>3</v>
@@ -1938,10 +1923,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
@@ -1955,13 +1940,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D56" s="1">
         <v>20971</v>
@@ -1972,13 +1957,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C57" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D57" s="1">
         <v>2178</v>
@@ -1989,13 +1974,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D58" s="1">
         <v>156740</v>
@@ -2008,7 +1993,7 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D59" s="4">
         <f>SUM(D54:D57)-D58</f>
@@ -2021,10 +2006,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B60" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C60" t="s">
         <v>3</v>
@@ -2038,10 +2023,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C61" t="s">
         <v>4</v>
@@ -2055,13 +2040,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B62" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C62" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D62" s="1">
         <v>72</v>
@@ -2072,10 +2057,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B63" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2090,7 +2075,7 @@
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="2"/>
       <c r="C64" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D64" s="4">
         <f>SUM(D60:D62)-D63</f>
@@ -2103,10 +2088,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B65" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C65" t="s">
         <v>3</v>
@@ -2120,10 +2105,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B66" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C66" t="s">
         <v>4</v>
@@ -2137,13 +2122,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B67" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D67" s="1">
         <v>272</v>
@@ -2154,10 +2139,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B68" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2172,7 +2157,7 @@
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
       <c r="C69" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D69" s="4">
         <f>SUM(D65:D67)-D68</f>
@@ -2185,10 +2170,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B70" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C70" t="s">
         <v>3</v>
@@ -2202,13 +2187,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D71" s="1">
         <v>7811</v>
@@ -2219,13 +2204,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B72" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C72" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D72" s="1">
         <v>5128</v>
@@ -2236,13 +2221,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B73" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D73" s="1">
         <v>4792</v>
@@ -2253,13 +2238,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B74" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D74" s="1">
         <v>519</v>
@@ -2270,13 +2255,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B75" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C75" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D75" s="1">
         <v>27188</v>
@@ -2288,7 +2273,7 @@
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="2"/>
       <c r="C76" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D76" s="4">
         <f>SUM(D70:D74)-D75</f>
@@ -2301,13 +2286,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C77" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D77" s="1">
         <v>19397</v>
@@ -2318,10 +2303,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2337,7 +2322,7 @@
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D79" s="4">
         <v>0</v>
@@ -2348,13 +2333,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D80" s="1">
         <v>7277</v>
@@ -2365,13 +2350,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B81" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C81" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D81" s="1">
         <v>7277</v>
@@ -2383,7 +2368,7 @@
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="2"/>
       <c r="C82" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D82" s="4">
         <v>0</v>
@@ -2394,13 +2379,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D83" s="1">
         <v>4717</v>
@@ -2411,10 +2396,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2430,7 +2415,7 @@
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D85" s="4">
         <v>0</v>
@@ -2441,13 +2426,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B86" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D86" s="1">
         <v>3449</v>
@@ -2458,10 +2443,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B87" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>3</v>
@@ -2475,13 +2460,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B88" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D88" s="1">
         <v>2040</v>
@@ -2492,10 +2477,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B89" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2509,7 +2494,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C90" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D90" s="4">
         <f>SUM(D86:D88)-D89</f>
@@ -2522,10 +2507,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B91" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2539,13 +2524,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B92" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C92" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D92" s="1">
         <v>1101629</v>
@@ -2556,13 +2541,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B93" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C93" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D93" s="1">
         <v>355211</v>
@@ -2573,13 +2558,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B94" t="s">
+        <v>48</v>
+      </c>
+      <c r="C94" t="s">
         <v>50</v>
-      </c>
-      <c r="C94" t="s">
-        <v>52</v>
       </c>
       <c r="D94" s="1">
         <v>165200</v>
@@ -2590,10 +2575,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B95" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
@@ -2607,13 +2592,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B96" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C96" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D96" s="1">
         <v>124695</v>
@@ -2624,13 +2609,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B97" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C97" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D97" s="1">
         <v>117775</v>
@@ -2641,10 +2626,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B98" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C98" t="s">
         <v>3</v>
@@ -2658,13 +2643,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B99" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C99" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D99" s="1">
         <v>88608</v>
@@ -2675,13 +2660,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B100" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C100" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D100" s="1">
         <v>44900</v>
@@ -2692,10 +2677,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B101" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C101" t="s">
         <v>0</v>
@@ -2709,10 +2694,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B102" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C102" t="s">
         <v>6</v>
@@ -2726,13 +2711,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B103" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C103" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D103" s="1">
         <v>18084</v>
@@ -2743,13 +2728,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B104" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C104" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D104" s="1">
         <v>14319</v>
@@ -2760,13 +2745,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B105" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C105" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D105" s="1">
         <v>12332</v>
@@ -2777,13 +2762,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B106" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C106" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D106" s="1">
         <v>10971</v>
@@ -2794,13 +2779,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B107" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D107" s="1">
         <v>44360</v>
@@ -2811,13 +2796,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B108" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C108" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D108" s="1">
         <v>2395151</v>
@@ -2829,7 +2814,7 @@
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="2"/>
       <c r="C109" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D109" s="4">
         <f>SUM(D92:D107)-D108</f>
@@ -2842,10 +2827,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C110" t="s">
         <v>3</v>
@@ -2859,13 +2844,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C111" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D111" s="1">
         <v>44508</v>
@@ -2876,10 +2861,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
@@ -2893,13 +2878,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C113" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D113" s="1">
         <v>41565</v>
@@ -2910,13 +2895,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C114" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D114" s="1">
         <v>14788</v>
@@ -2927,10 +2912,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C115" t="s">
         <v>0</v>
@@ -2944,13 +2929,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D116" s="1">
         <v>11856</v>
@@ -2961,13 +2946,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C117" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D117" s="1">
         <v>562442</v>
@@ -2980,7 +2965,7 @@
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D118" s="4">
         <f>SUM(D110:D116)-D117</f>
@@ -2993,13 +2978,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B119" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C119" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D119" s="1">
         <v>119917</v>
@@ -3010,10 +2995,10 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B120" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C120" t="s">
         <v>1</v>
@@ -3027,13 +3012,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B121" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C121" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D121" s="1">
         <v>71775</v>
@@ -3044,10 +3029,10 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B122" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C122" t="s">
         <v>7</v>
@@ -3061,13 +3046,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B123" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C123" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D123" s="1">
         <v>30505</v>
@@ -3078,13 +3063,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B124" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C124" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D124" s="1">
         <v>10213</v>
@@ -3095,13 +3080,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B125" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C125" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D125" s="1">
         <v>9176</v>
@@ -3112,13 +3097,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B126" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C126" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D126" s="1">
         <v>16040</v>
@@ -3129,10 +3114,10 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B127" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -3147,7 +3132,7 @@
     <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A128" s="2"/>
       <c r="C128" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D128" s="4">
         <f>SUM(D119:D126)-D127</f>
@@ -3160,13 +3145,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B129" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C129" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D129" s="1">
         <v>232886</v>
@@ -3177,13 +3162,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B130" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C130" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D130" s="1">
         <v>44863</v>
@@ -3194,10 +3179,10 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B131" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C131" t="s">
         <v>3</v>
@@ -3211,13 +3196,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B132" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C132" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D132" s="1">
         <v>290668</v>
@@ -3229,7 +3214,7 @@
     <row r="133" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A133" s="2"/>
       <c r="C133" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D133" s="4">
         <f>SUM(D129:D131)-D132</f>
@@ -3242,10 +3227,10 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A134" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C134" t="s">
         <v>3</v>
@@ -3259,13 +3244,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A135" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C135" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D135" s="1">
         <v>5827</v>
@@ -3276,13 +3261,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A136" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C136" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D136" s="1">
         <v>7791</v>
@@ -3293,13 +3278,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C137" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D137" s="1">
         <v>91317</v>
@@ -3312,7 +3297,7 @@
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D138" s="4">
         <f>SUM(D134:D136)-D137</f>
@@ -3325,13 +3310,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A139" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B139" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C139" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D139" s="1">
         <v>42191</v>
@@ -3342,13 +3327,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B140" t="s">
+        <v>61</v>
+      </c>
+      <c r="C140" t="s">
         <v>63</v>
-      </c>
-      <c r="C140" t="s">
-        <v>65</v>
       </c>
       <c r="D140" s="1">
         <v>24461</v>
@@ -3359,13 +3344,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A141" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B141" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C141" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D141" s="1">
         <v>9679</v>
@@ -3376,13 +3361,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A142" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B142" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C142" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D142" s="1">
         <v>5319</v>
@@ -3393,13 +3378,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B143" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C143" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D143" s="1">
         <v>1943</v>
@@ -3410,13 +3395,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A144" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B144" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C144" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D144" s="1">
         <v>83593</v>
@@ -3428,7 +3413,7 @@
     <row r="145" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A145" s="2"/>
       <c r="C145" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D145" s="4">
         <f>SUM(D139:D143)-D144</f>
@@ -3441,13 +3426,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A146" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B146" t="s">
         <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D146" s="1">
         <v>20422</v>
@@ -3458,13 +3443,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B147" t="s">
         <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D147" s="1">
         <v>77</v>
@@ -3475,7 +3460,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B148" t="s">
         <v>8</v>
@@ -3493,7 +3478,7 @@
     <row r="149" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A149" s="2"/>
       <c r="C149" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D149" s="4">
         <f>SUM(D146:D147)-D148</f>
@@ -3506,10 +3491,10 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A150" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B150" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C150" t="s">
         <v>3</v>
@@ -3523,13 +3508,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B151" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C151" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D151" s="1">
         <v>5175</v>
@@ -3540,13 +3525,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A152" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B152" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C152" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D152" s="1">
         <v>1185</v>
@@ -3557,10 +3542,10 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A153" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B153" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3575,7 +3560,7 @@
     <row r="154" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A154" s="2"/>
       <c r="C154" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D154" s="4">
         <f>SUM(D150:D152)-D153</f>
@@ -3588,13 +3573,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A155" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B155" t="s">
         <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D155" s="1">
         <v>6115</v>
@@ -3605,13 +3590,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B156" t="s">
         <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D156" s="1">
         <v>5429</v>
@@ -3622,7 +3607,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B157" t="s">
         <v>9</v>
@@ -3640,7 +3625,7 @@
     <row r="158" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A158" s="2"/>
       <c r="C158" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D158" s="4">
         <f>SUM(D155:D156)-D157</f>
@@ -3653,13 +3638,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B159" t="s">
         <v>10</v>
       </c>
       <c r="C159" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D159" s="1">
         <v>10076</v>
@@ -3670,13 +3655,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A160" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B160" t="s">
         <v>10</v>
       </c>
       <c r="C160" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D160" s="1">
         <v>749</v>
@@ -3687,13 +3672,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A161" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B161" t="s">
         <v>10</v>
       </c>
       <c r="C161" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D161" s="1">
         <v>10825</v>
@@ -3705,7 +3690,7 @@
     <row r="162" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A162" s="2"/>
       <c r="C162" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D162" s="4">
         <f>SUM(D159:D160)-D161</f>
@@ -3718,13 +3703,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A163" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C163" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D163" s="1">
         <v>8815</v>
@@ -3735,10 +3720,10 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A164" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3752,7 +3737,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C165" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D165" s="4">
         <v>0</v>
@@ -3763,10 +3748,10 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A166" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B166" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3780,13 +3765,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A167" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B167" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C167" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D167" s="1">
         <v>784776</v>
@@ -3797,13 +3782,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C168" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D168" s="1">
         <v>372514</v>
@@ -3814,10 +3799,10 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A169" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C169" t="s">
         <v>11</v>
@@ -3831,13 +3816,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A170" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B170" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C170" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D170" s="1">
         <v>162747</v>
@@ -3848,13 +3833,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A171" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C171" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D171" s="1">
         <v>155464</v>
@@ -3865,10 +3850,10 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A172" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C172" t="s">
         <v>3</v>
@@ -3882,13 +3867,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A173" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C173" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D173" s="1">
         <v>15805</v>
@@ -3899,13 +3884,13 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B174" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C174" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D174" s="1">
         <v>15284</v>
@@ -3916,10 +3901,10 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A175" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B175" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C175" t="s">
         <v>12</v>
@@ -3933,10 +3918,10 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B176" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C176" t="s">
         <v>1</v>
@@ -3950,13 +3935,13 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A177" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B177" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C177" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D177" s="1">
         <v>10617</v>
@@ -3967,13 +3952,13 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B178" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C178" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D178" s="1">
         <v>10360</v>
@@ -3984,10 +3969,10 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A179" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B179" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C179" t="s">
         <v>13</v>
@@ -4001,13 +3986,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A180" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B180" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C180" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D180" s="1">
         <v>7200</v>
@@ -4018,13 +4003,13 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A181" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B181" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C181" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D181" s="1">
         <v>5510</v>
@@ -4035,13 +4020,13 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A182" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B182" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C182" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D182" s="1">
         <v>18339</v>
@@ -4052,13 +4037,13 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A183" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B183" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C183" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D183" s="1">
         <v>1937471</v>
@@ -4070,7 +4055,7 @@
     <row r="184" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A184" s="2"/>
       <c r="C184" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D184" s="4">
         <f>SUM(D167:D182)-D183</f>
@@ -4083,13 +4068,13 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A185" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C185" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D185" s="1">
         <v>303362</v>
@@ -4100,13 +4085,13 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A186" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C186" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D186" s="1">
         <v>143635</v>
@@ -4117,10 +4102,10 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A187" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C187" t="s">
         <v>3</v>
@@ -4134,13 +4119,13 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A188" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C188" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D188" s="1">
         <v>49400</v>
@@ -4151,10 +4136,10 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A189" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C189" t="s">
         <v>12</v>
@@ -4168,13 +4153,13 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A190" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C190" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D190" s="1">
         <v>4278</v>
@@ -4185,13 +4170,13 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A191" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C191" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D191" s="1">
         <v>4722</v>
@@ -4202,10 +4187,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A192" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -4221,7 +4206,7 @@
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D193" s="4">
         <f>SUM(D185:D191)-D192</f>
@@ -4234,13 +4219,13 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A194" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C194" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D194" s="1">
         <v>88259</v>
@@ -4251,13 +4236,13 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A195" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C195" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D195" s="1">
         <v>67350</v>
@@ -4268,13 +4253,13 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A196" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C196" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D196" s="1">
         <v>59781</v>
@@ -4285,13 +4270,13 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A197" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C197" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D197" s="1">
         <v>43787</v>
@@ -4302,10 +4287,10 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C198" t="s">
         <v>6</v>
@@ -4319,13 +4304,13 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A199" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C199" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D199" s="1">
         <v>9567</v>
@@ -4336,13 +4321,13 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A200" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C200" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D200" s="1">
         <v>7564</v>
@@ -4353,13 +4338,13 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A201" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C201" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D201" s="1">
         <v>6589</v>
@@ -4370,13 +4355,13 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A202" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C202" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D202" s="1">
         <v>25639</v>
@@ -4387,10 +4372,10 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A203" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -4404,7 +4389,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C204" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D204" s="4">
         <f>SUM(D194:D202)-D203</f>
@@ -4417,10 +4402,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A205" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -4434,13 +4419,13 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A206" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D206" s="1">
         <v>128453</v>
@@ -4451,13 +4436,13 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A207" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C207" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D207" s="1">
         <v>106828</v>
@@ -4468,13 +4453,13 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A208" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C208" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D208" s="1">
         <v>85611</v>
@@ -4485,10 +4470,10 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A209" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C209" t="s">
         <v>1</v>
@@ -4502,13 +4487,13 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A210" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C210" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D210" s="1">
         <v>36552</v>
@@ -4519,10 +4504,10 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A211" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C211" t="s">
         <v>14</v>
@@ -4536,13 +4521,13 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A212" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C212" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D212" s="1">
         <v>19258</v>
@@ -4553,13 +4538,13 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A213" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C213" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D213" s="1">
         <v>15210</v>
@@ -4570,13 +4555,13 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A214" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C214" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D214" s="1">
         <v>11056</v>
@@ -4587,13 +4572,13 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A215" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C215" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D215" s="1">
         <v>9011</v>
@@ -4604,13 +4589,13 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A216" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C216" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D216" s="1">
         <v>7912</v>
@@ -4621,13 +4606,13 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A217" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C217" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D217" s="1">
         <v>5113</v>
@@ -4638,13 +4623,13 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A218" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C218" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D218" s="1">
         <v>5086</v>
@@ -4655,13 +4640,13 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A219" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C219" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D219" s="1">
         <v>8375</v>
@@ -4672,10 +4657,10 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A220" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4691,7 +4676,7 @@
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D221" s="4">
         <f>SUM(D206:D219)-D220</f>
@@ -4704,13 +4689,13 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A222" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D222" s="1">
         <v>321225</v>
@@ -4721,13 +4706,13 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A223" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C223" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D223" s="1">
         <v>23518</v>
@@ -4738,13 +4723,13 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A224" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C224" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D224" s="1">
         <v>23278</v>
@@ -4755,13 +4740,13 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A225" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C225" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D225" s="1">
         <v>8668</v>
@@ -4772,13 +4757,13 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A226" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C226" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D226" s="1">
         <v>5953</v>
@@ -4789,13 +4774,13 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A227" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C227" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D227" s="1">
         <v>5617</v>
@@ -4806,10 +4791,10 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A228" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4825,7 +4810,7 @@
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D229" s="4">
         <f>SUM(D222:D227)-D228</f>
@@ -4838,13 +4823,13 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A230" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B230" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C230" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D230" s="1">
         <v>142472</v>
@@ -4855,13 +4840,13 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A231" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B231" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C231" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D231" s="1">
         <v>92762</v>
@@ -4872,13 +4857,13 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A232" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B232" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C232" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D232" s="1">
         <v>23411</v>
@@ -4889,13 +4874,13 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A233" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B233" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C233" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D233" s="1">
         <v>10955</v>
@@ -4906,13 +4891,13 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A234" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B234" t="s">
+        <v>81</v>
+      </c>
+      <c r="C234" t="s">
         <v>83</v>
-      </c>
-      <c r="C234" t="s">
-        <v>85</v>
       </c>
       <c r="D234" s="1">
         <v>6502</v>
@@ -4923,10 +4908,10 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A235" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B235" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C235" t="s">
         <v>14</v>
@@ -4940,13 +4925,13 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A236" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B236" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C236" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D236" s="1">
         <v>12948</v>
@@ -4957,10 +4942,10 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A237" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B237" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4975,7 +4960,7 @@
     <row r="238" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A238" s="2"/>
       <c r="C238" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D238" s="4">
         <f>SUM(D230:D236)-D237</f>
@@ -4988,13 +4973,13 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A239" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D239" s="1">
         <v>68237</v>
@@ -5005,13 +4990,13 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A240" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C240" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D240" s="1">
         <v>13994</v>
@@ -5022,13 +5007,13 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A241" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C241" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D241" s="1">
         <v>12517</v>
@@ -5039,13 +5024,13 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A242" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C242" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D242" s="1">
         <v>9705</v>
@@ -5056,10 +5041,10 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A243" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C243" t="s">
         <v>14</v>
@@ -5073,13 +5058,13 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A244" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C244" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D244" s="1">
         <v>18601</v>
@@ -5090,13 +5075,13 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A245" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C245" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D245" s="1">
         <v>128795</v>
@@ -5109,7 +5094,7 @@
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D246" s="4">
         <f>SUM(D239:D244)-D245</f>
@@ -5122,13 +5107,13 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A247" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C247" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D247" s="1">
         <v>72948</v>
@@ -5139,10 +5124,10 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A248" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -5158,7 +5143,7 @@
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D249" s="4">
         <v>0</v>
@@ -5169,13 +5154,13 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A250" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B250" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C250" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D250" s="1">
         <v>26508</v>
@@ -5186,10 +5171,10 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A251" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B251" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5204,7 +5189,7 @@
     <row r="252" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A252" s="2"/>
       <c r="C252" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D252" s="4">
         <v>0</v>
@@ -5215,13 +5200,13 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A253" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C253" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D253" s="1">
         <v>5724</v>
@@ -5232,13 +5217,13 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A254" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C254" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D254" s="1">
         <v>10</v>
@@ -5249,10 +5234,10 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A255" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -5268,7 +5253,7 @@
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D256" s="4">
         <f>SUM(D253:D254)-D255</f>
@@ -5281,13 +5266,13 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A257" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C257" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D257" s="1">
         <v>4313</v>
@@ -5298,10 +5283,10 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A258" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -5315,7 +5300,7 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C259" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D259" s="4">
         <v>0</v>
@@ -5326,10 +5311,10 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A260" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -5343,13 +5328,13 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A261" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C261" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D261" s="1">
         <v>19270510</v>
@@ -5360,13 +5345,13 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A262" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C262" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D262" s="1">
         <v>6780114</v>
@@ -5377,13 +5362,13 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A263" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C263" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D263" s="1">
         <v>4731089</v>
@@ -5394,13 +5379,13 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A264" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C264" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D264" s="1">
         <v>3293324</v>
@@ -5411,13 +5396,13 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A265" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C265" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D265" s="1">
         <v>615224</v>
@@ -5428,13 +5413,13 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A266" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C266" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D266" s="1">
         <v>553563</v>
@@ -5445,13 +5430,13 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A267" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C267" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D267" s="1">
         <v>511378</v>
@@ -5462,13 +5447,13 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A268" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C268" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D268" s="1">
         <v>219856</v>
@@ -5479,13 +5464,13 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A269" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C269" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D269" s="1">
         <v>168731</v>
@@ -5496,13 +5481,13 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A270" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C270" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D270" s="1">
         <v>2658</v>
@@ -5513,10 +5498,10 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A271" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5532,7 +5517,7 @@
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D272" s="4">
         <f>SUM(D261:D270)-D271</f>
@@ -5545,10 +5530,10 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A273" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C273" t="s">
         <v>11</v>
@@ -5562,13 +5547,13 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A274" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C274" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D274" s="1">
         <v>574950</v>
@@ -5579,13 +5564,13 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A275" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C275" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D275" s="1">
         <v>279789</v>
@@ -5596,13 +5581,13 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A276" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C276" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D276" s="1">
         <v>273405</v>
@@ -5613,13 +5598,13 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A277" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C277" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D277" s="1">
         <v>105701</v>
@@ -5630,10 +5615,10 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A278" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C278" t="s">
         <v>13</v>
@@ -5647,13 +5632,13 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A279" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C279" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D279" s="1">
         <v>52462</v>
@@ -5664,13 +5649,13 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A280" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C280" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D280" s="1">
         <v>44810</v>
@@ -5681,13 +5666,13 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A281" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C281" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D281" s="1">
         <v>34180</v>
@@ -5698,13 +5683,13 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A282" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C282" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D282" s="1">
         <v>22189</v>
@@ -5715,13 +5700,13 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A283" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C283" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D283" s="1">
         <v>19058</v>
@@ -5732,13 +5717,13 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A284" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C284" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D284" s="1">
         <v>9031</v>
@@ -5749,13 +5734,13 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A285" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C285" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D285" s="1">
         <v>8853</v>
@@ -5766,13 +5751,13 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A286" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C286" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D286" s="1">
         <v>5946</v>
@@ -5783,13 +5768,13 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A287" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C287" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D287" s="1">
         <v>20621</v>
@@ -5800,10 +5785,10 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A288" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5819,7 +5804,7 @@
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D289" s="4">
         <f>SUM(D273:D287)-D288</f>
@@ -5832,13 +5817,13 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A290" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B290" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C290" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D290" s="1">
         <v>533447</v>
@@ -5849,10 +5834,10 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A291" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B291" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C291" t="s">
         <v>11</v>
@@ -5866,13 +5851,13 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A292" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B292" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C292" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D292" s="1">
         <v>137765</v>
@@ -5883,10 +5868,10 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A293" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B293" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C293" t="s">
         <v>13</v>
@@ -5900,13 +5885,13 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A294" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B294" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C294" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D294" s="1">
         <v>69705</v>
@@ -5917,10 +5902,10 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A295" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B295" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C295" t="s">
         <v>12</v>
@@ -5934,13 +5919,13 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A296" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B296" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C296" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D296" s="1">
         <v>56203</v>
@@ -5951,13 +5936,13 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A297" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B297" t="s">
+        <v>97</v>
+      </c>
+      <c r="C297" t="s">
         <v>99</v>
-      </c>
-      <c r="C297" t="s">
-        <v>101</v>
       </c>
       <c r="D297" s="1">
         <v>36107</v>
@@ -5968,13 +5953,13 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A298" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B298" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C298" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D298" s="1">
         <v>8565</v>
@@ -5985,13 +5970,13 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A299" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B299" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C299" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D299" s="1">
         <v>6750</v>
@@ -6002,13 +5987,13 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A300" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B300" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C300" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D300" s="1">
         <v>9361</v>
@@ -6019,13 +6004,13 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A301" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B301" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C301" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D301" s="1">
         <v>1432203</v>
@@ -6037,7 +6022,7 @@
     <row r="302" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A302" s="2"/>
       <c r="C302" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D302" s="4">
         <f>SUM(D290:D300)-D301</f>
@@ -6050,13 +6035,13 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A303" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C303" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="D303" s="1">
         <v>255910</v>
@@ -6067,13 +6052,13 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A304" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C304" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D304" s="1">
         <v>161292</v>
@@ -6084,13 +6069,13 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A305" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C305" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D305" s="1">
         <v>149290</v>
@@ -6101,13 +6086,13 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A306" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C306" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D306" s="1">
         <v>102443</v>
@@ -6118,13 +6103,13 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A307" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C307" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D307" s="1">
         <v>77510</v>
@@ -6135,13 +6120,13 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A308" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C308" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D308" s="1">
         <v>76477</v>
@@ -6152,13 +6137,13 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A309" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C309" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D309" s="1">
         <v>48612</v>
@@ -6169,13 +6154,13 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A310" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C310" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="D310" s="1">
         <v>47325</v>
@@ -6186,13 +6171,13 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A311" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C311" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D311" s="1">
         <v>46556</v>
@@ -6203,10 +6188,10 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A312" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C312" t="s">
         <v>14</v>
@@ -6220,13 +6205,13 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A313" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C313" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D313" s="1">
         <v>42534</v>
@@ -6237,13 +6222,13 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A314" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C314" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D314" s="1">
         <v>33827</v>
@@ -6254,13 +6239,13 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A315" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C315" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D315" s="1">
         <v>31839</v>
@@ -6271,13 +6256,13 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A316" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C316" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D316" s="1">
         <v>30651</v>
@@ -6288,10 +6273,10 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A317" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C317" t="s">
         <v>13</v>
@@ -6305,13 +6290,13 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A318" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C318" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D318" s="1">
         <v>18430</v>
@@ -6322,13 +6307,13 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A319" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C319" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D319" s="1">
         <v>16374</v>
@@ -6339,13 +6324,13 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A320" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C320" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D320" s="1">
         <v>14717</v>
@@ -6356,13 +6341,13 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A321" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C321" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="D321" s="1">
         <v>12201</v>
@@ -6373,13 +6358,13 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A322" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C322" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D322" s="1">
         <v>10277</v>
@@ -6390,13 +6375,13 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A323" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C323" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D323" s="1">
         <v>8292</v>
@@ -6407,13 +6392,13 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A324" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C324" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D324" s="1">
         <v>5953</v>
@@ -6424,13 +6409,13 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A325" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C325" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D325" s="1">
         <v>20521</v>
@@ -6441,10 +6426,10 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A326" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -6460,7 +6445,7 @@
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D327" s="4">
         <f>SUM(D303:D325)-D326</f>
@@ -6473,13 +6458,13 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A328" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B328" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C328" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D328" s="1">
         <v>248047</v>
@@ -6490,13 +6475,13 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A329" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B329" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C329" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D329" s="1">
         <v>177490</v>
@@ -6507,13 +6492,13 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A330" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B330" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C330" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D330" s="1">
         <v>44088</v>
@@ -6524,13 +6509,13 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A331" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B331" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C331" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D331" s="1">
         <v>22428</v>
@@ -6541,13 +6526,13 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A332" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B332" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C332" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D332" s="1">
         <v>16413</v>
@@ -6558,13 +6543,13 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A333" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B333" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C333" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D333" s="1">
         <v>15630</v>
@@ -6575,13 +6560,13 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A334" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B334" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C334" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D334" s="1">
         <v>14785</v>
@@ -6592,13 +6577,13 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A335" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B335" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C335" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D335" s="1">
         <v>10285</v>
@@ -6609,13 +6594,13 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A336" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B336" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C336" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D336" s="1">
         <v>8511</v>
@@ -6626,13 +6611,13 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A337" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B337" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C337" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D337" s="1">
         <v>6294</v>
@@ -6643,13 +6628,13 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A338" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B338" t="s">
+        <v>17</v>
+      </c>
+      <c r="C338" t="s">
         <v>19</v>
-      </c>
-      <c r="C338" t="s">
-        <v>21</v>
       </c>
       <c r="D338" s="1">
         <v>5980</v>
@@ -6660,13 +6645,13 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A339" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B339" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C339" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D339" s="1">
         <v>9164</v>
@@ -6677,13 +6662,13 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A340" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B340" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C340" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D340" s="1">
         <v>579115</v>
@@ -6695,7 +6680,7 @@
     <row r="341" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A341" s="2"/>
       <c r="C341" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D341" s="4">
         <f>SUM(D328:D339)-D340</f>
@@ -6708,13 +6693,13 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A342" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B342" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C342" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D342" s="1">
         <v>300729</v>
@@ -6725,10 +6710,10 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A343" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B343" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C343" t="s">
         <v>0</v>
@@ -6742,10 +6727,10 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A344" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B344" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C344" t="s">
         <v>6</v>
@@ -6759,13 +6744,13 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A345" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B345" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C345" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D345" s="1">
         <v>49249</v>
@@ -6776,10 +6761,10 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A346" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B346" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -6794,7 +6779,7 @@
     <row r="347" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A347" s="2"/>
       <c r="C347" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D347" s="4">
         <f>SUM(D342:D345)-D346</f>
@@ -6807,13 +6792,13 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A348" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B348" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C348" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D348" s="1">
         <v>35772</v>
@@ -6824,13 +6809,13 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A349" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B349" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C349" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D349" s="1">
         <v>34276</v>
@@ -6841,13 +6826,13 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A350" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B350" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C350" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D350" s="1">
         <v>9681</v>
@@ -6858,13 +6843,13 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A351" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B351" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C351" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D351" s="1">
         <v>6340</v>
@@ -6875,13 +6860,13 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A352" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B352" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C352" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D352" s="1">
         <v>6181</v>
@@ -6892,13 +6877,13 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A353" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B353" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C353" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D353" s="1">
         <v>4422</v>
@@ -6909,13 +6894,13 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A354" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B354" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C354" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D354" s="1">
         <v>12099</v>
@@ -6926,10 +6911,10 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A355" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B355" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -6944,7 +6929,7 @@
     <row r="356" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A356" s="2"/>
       <c r="C356" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D356" s="4">
         <f>SUM(D348:D354)-D355</f>
@@ -6957,13 +6942,13 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A357" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B357" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C357" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D357" s="1">
         <v>12839</v>
@@ -6974,13 +6959,13 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A358" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B358" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C358" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D358" s="1">
         <v>2370</v>
@@ -6991,10 +6976,10 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A359" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B359" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -7009,7 +6994,7 @@
     <row r="360" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A360" s="2"/>
       <c r="C360" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D360" s="4">
         <f>SUM(D357:D358)-D359</f>
@@ -7022,13 +7007,13 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A361" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B361" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C361" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D361" s="1">
         <v>3609</v>
@@ -7039,13 +7024,13 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A362" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B362" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C362" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D362" s="1">
         <v>1368</v>
@@ -7056,13 +7041,13 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A363" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B363" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C363" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D363" s="1">
         <v>4487</v>
@@ -7073,10 +7058,10 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A364" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B364" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -7091,7 +7076,7 @@
     <row r="365" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A365" s="2"/>
       <c r="C365" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D365" s="4">
         <f>SUM(D361:D363)-D364</f>
@@ -7104,13 +7089,13 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A366" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C366" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D366" s="1">
         <v>812902</v>
@@ -7121,13 +7106,13 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A367" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C367" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D367" s="1">
         <v>4599</v>
@@ -7138,13 +7123,13 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A368" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C368" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D368" s="1">
         <v>7814</v>
@@ -7155,10 +7140,10 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A369" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -7172,7 +7157,7 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C370" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D370" s="4">
         <f>SUM(D366:D368)-D369</f>
@@ -7185,10 +7170,10 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A371" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B371" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -7202,10 +7187,10 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A372" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>11</v>
@@ -7219,13 +7204,13 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A373" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C373" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D373" s="1">
         <v>3352140</v>
@@ -7236,13 +7221,13 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A374" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C374" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D374" s="1">
         <v>2833722</v>
@@ -7253,13 +7238,13 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A375" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C375" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D375" s="1">
         <v>120285</v>
@@ -7270,13 +7255,13 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A376" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C376" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D376" s="1">
         <v>109823</v>
@@ -7287,13 +7272,13 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A377" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D377" s="1">
         <v>55471</v>
@@ -7304,13 +7289,13 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A378" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C378" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D378" s="1">
         <v>47307</v>
@@ -7321,13 +7306,13 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A379" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C379" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D379" s="1">
         <v>46194</v>
@@ -7338,13 +7323,13 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A380" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C380" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D380" s="1">
         <v>42020</v>
@@ -7355,13 +7340,13 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A381" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C381" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D381" s="1">
         <v>20813</v>
@@ -7372,13 +7357,13 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A382" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C382" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D382" s="1">
         <v>17864</v>
@@ -7389,13 +7374,13 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A383" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C383" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D383" s="1">
         <v>15521</v>
@@ -7406,13 +7391,13 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A384" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D384" s="1">
         <v>15388</v>
@@ -7423,13 +7408,13 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A385" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C385" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D385" s="1">
         <v>13479</v>
@@ -7440,13 +7425,13 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A386" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C386" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D386" s="1">
         <v>6324</v>
@@ -7457,13 +7442,13 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A387" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C387" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D387" s="1">
         <v>6276</v>
@@ -7474,13 +7459,13 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A388" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C388" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D388" s="1">
         <v>5730</v>
@@ -7491,13 +7476,13 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A389" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C389" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D389" s="1">
         <v>5374</v>
@@ -7508,13 +7493,13 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A390" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C390" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D390" s="1">
         <v>21960</v>
@@ -7525,10 +7510,10 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A391" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -7544,7 +7529,7 @@
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D392" s="4">
         <f>SUM(D372:D390)-D391</f>
@@ -7557,13 +7542,13 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A393" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D393" s="1">
         <v>1575335</v>
@@ -7574,13 +7559,13 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A394" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D394" s="1">
         <v>1281741</v>
@@ -7591,13 +7576,13 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A395" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D395" s="1">
         <v>700581</v>
@@ -7608,13 +7593,13 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A396" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C396" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D396" s="1">
         <v>14963</v>
@@ -7625,13 +7610,13 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A397" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D397" s="1">
         <v>6738</v>
@@ -7642,13 +7627,13 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A398" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C398" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D398" s="1">
         <v>4926</v>
@@ -7659,10 +7644,10 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A399" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -7678,7 +7663,7 @@
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D400" s="4">
         <f>SUM(D393:D398)-D399</f>
@@ -7691,13 +7676,13 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A401" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B401" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D401" s="1">
         <v>12052</v>
@@ -7708,13 +7693,13 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A402" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B402" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C402" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D402" s="1">
         <v>7700</v>
@@ -7725,10 +7710,10 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A403" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B403" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -7743,7 +7728,7 @@
     <row r="404" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A404" s="2"/>
       <c r="C404" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D404" s="4">
         <f>SUM(D401:D402)-D403</f>
@@ -7756,13 +7741,13 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A405" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D405" s="1">
         <v>9225</v>
@@ -7773,10 +7758,10 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A406" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -7792,7 +7777,7 @@
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D407" s="4">
         <v>0</v>
@@ -7803,13 +7788,13 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A408" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B408" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C408" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D408" s="1">
         <v>8981</v>
@@ -7820,13 +7805,13 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A409" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B409" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C409" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D409" s="1">
         <v>8981</v>
@@ -7838,7 +7823,7 @@
     <row r="410" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A410" s="2"/>
       <c r="C410" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D410" s="4">
         <v>0</v>
@@ -7849,13 +7834,13 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A411" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C411" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D411" s="1">
         <v>5540</v>
@@ -7866,13 +7851,13 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A412" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D412" s="1">
         <v>3085</v>
@@ -7883,10 +7868,10 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A413" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>5</v>
@@ -7902,7 +7887,7 @@
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D414" s="4">
         <f>SUM(D411:D412)-D413</f>
@@ -7915,13 +7900,13 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A415" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C415" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D415" s="1">
         <v>3490</v>
@@ -7932,10 +7917,10 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A416" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -7949,7 +7934,7 @@
     </row>
     <row r="417" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C417" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D417" s="4">
         <v>0</v>
